--- a/Reverse_anglesIn_20.xlsx
+++ b/Reverse_anglesIn_20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,562 +440,2778 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-519.0281763951161</v>
+        <v>-526.9193701202585</v>
       </c>
       <c r="B2" t="n">
-        <v>-45.71084088837362</v>
+        <v>-46.42110217010079</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>-485.2634899817434</v>
+        <v>-519.0494615908061</v>
       </c>
       <c r="B3" t="n">
-        <v>-42.69932510458213</v>
+        <v>-45.71312592421982</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-457.2863831977842</v>
+        <v>-511.6469634236551</v>
       </c>
       <c r="B4" t="n">
-        <v>-40.29660491062648</v>
+        <v>-45.04807127760474</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>-432.0657134732813</v>
+        <v>-504.6325919690768</v>
       </c>
       <c r="B5" t="n">
-        <v>-38.22228658337316</v>
+        <v>-44.41978901696871</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>-408.7846611378402</v>
+        <v>-497.9453826089914</v>
       </c>
       <c r="B6" t="n">
-        <v>-36.40559330164399</v>
+        <v>-43.82344718925882</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>-386.7866855913114</v>
+        <v>-491.5373837060852</v>
       </c>
       <c r="B7" t="n">
-        <v>-34.77845992251627</v>
+        <v>-43.25516342131716</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>-365.7533394881223</v>
+        <v>-485.3703226699804</v>
       </c>
       <c r="B8" t="n">
-        <v>-33.30531379094775</v>
+        <v>-42.71177857121408</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>-345.1655956041217</v>
+        <v>-479.4130364397965</v>
       </c>
       <c r="B9" t="n">
-        <v>-31.9185806218343</v>
+        <v>-42.19066761342619</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>-325.1106438990034</v>
+        <v>-473.6399405825251</v>
       </c>
       <c r="B10" t="n">
-        <v>-30.6301066206689</v>
+        <v>-41.68963619486662</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>-305.7159658846793</v>
+        <v>-468.0297109811044</v>
       </c>
       <c r="B11" t="n">
-        <v>-29.45683215666729</v>
+        <v>-41.2068208353408</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>-286.473698304461</v>
+        <v>-462.5643291283508</v>
       </c>
       <c r="B12" t="n">
-        <v>-28.32711258088704</v>
+        <v>-40.74061566148124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>-267.5764507108799</v>
+        <v>-457.2285154037512</v>
       </c>
       <c r="B13" t="n">
-        <v>-27.26590143295368</v>
+        <v>-40.28963492914563</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>-248.918336343534</v>
+        <v>-452.0092703440052</v>
       </c>
       <c r="B14" t="n">
-        <v>-26.25560751598712</v>
+        <v>-39.85268123341979</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>-230.4994953017578</v>
+        <v>-446.8953358246121</v>
       </c>
       <c r="B15" t="n">
-        <v>-25.29463947174404</v>
+        <v>-39.4286979852732</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>-212.2128877968966</v>
+        <v>-441.8768777321214</v>
       </c>
       <c r="B16" t="n">
-        <v>-24.36517829333723</v>
+        <v>-39.0167446740367</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>-194.1844183917594</v>
+        <v>-436.9453939368614</v>
       </c>
       <c r="B17" t="n">
-        <v>-23.48390418864519</v>
+        <v>-38.6159965221789</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>-176.5279928154162</v>
+        <v>-432.0933676894334</v>
       </c>
       <c r="B18" t="n">
-        <v>-22.66463758362639</v>
+        <v>-38.22571059648035</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>-158.7242822372662</v>
+        <v>-427.3142115045758</v>
       </c>
       <c r="B19" t="n">
-        <v>-21.82986939099215</v>
+        <v>-37.84522589518926</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>-141.7632770220627</v>
+        <v>-422.6020761075512</v>
       </c>
       <c r="B20" t="n">
-        <v>-21.12399168771698</v>
+        <v>-37.47394578283001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>-123.8359066901819</v>
+        <v>-417.9517021691321</v>
       </c>
       <c r="B21" t="n">
-        <v>-20.27476508528417</v>
+        <v>-37.11132323724627</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>-106.5054625652903</v>
+        <v>-413.3584819076781</v>
       </c>
       <c r="B22" t="n">
-        <v>-19.51400872411904</v>
+        <v>-36.75687333415424</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>-89.65694577322438</v>
+        <v>-408.8182222556498</v>
       </c>
       <c r="B23" t="n">
-        <v>-18.82697901856672</v>
+        <v>-36.41014613884013</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>-73.19286698875226</v>
+        <v>-404.3271852041156</v>
       </c>
       <c r="B24" t="n">
-        <v>-18.19611619825769</v>
+        <v>-36.07073470825699</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>-56.35391025242333</v>
+        <v>-399.8819675891671</v>
       </c>
       <c r="B25" t="n">
-        <v>-17.50006175299141</v>
+        <v>-35.73826182912713</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>-40.16931764447313</v>
+        <v>-395.4794913427224</v>
       </c>
       <c r="B26" t="n">
-        <v>-16.9010067240098</v>
+        <v>-35.41238074815499</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>-23.75740259598671</v>
+        <v>-391.1170326833328</v>
       </c>
       <c r="B27" t="n">
-        <v>-16.25768713948175</v>
+        <v>-35.09278069261494</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>-7.688655945871971</v>
+        <v>-386.792040812207</v>
       </c>
       <c r="B28" t="n">
-        <v>-15.659807072815</v>
+        <v>-34.7791648297806</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>8.253260635354486</v>
+        <v>-382.5022126315201</v>
       </c>
       <c r="B29" t="n">
-        <v>-15.07139210819292</v>
+        <v>-34.47126091867814</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>23.96984544741914</v>
+        <v>-378.2454740878231</v>
       </c>
       <c r="B30" t="n">
-        <v>-14.50752140533536</v>
+        <v>-34.16882017692729</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>39.59266295015006</v>
+        <v>-374.0198747040579</v>
       </c>
       <c r="B31" t="n">
-        <v>-13.94580961173087</v>
+        <v>-33.87160412463015</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>54.95084727542626</v>
+        <v>-369.8236814102791</v>
       </c>
       <c r="B32" t="n">
-        <v>-13.4139291403733</v>
+        <v>-33.57939797688485</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>70.19839695737957</v>
+        <v>-365.6552474384575</v>
       </c>
       <c r="B33" t="n">
-        <v>-12.88524023767975</v>
+        <v>-33.29199360265787</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>85.26509265298183</v>
+        <v>-361.5131263808555</v>
       </c>
       <c r="B34" t="n">
-        <v>-12.37078522516057</v>
+        <v>-33.00920573987016</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>100.1073268424932</v>
+        <v>-357.3959236108668</v>
       </c>
       <c r="B35" t="n">
-        <v>-11.87801110585825</v>
+        <v>-32.73085234837481</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>114.8049776724761</v>
+        <v>-353.302406798825</v>
       </c>
       <c r="B36" t="n">
-        <v>-11.3922917108651</v>
+        <v>-32.45676980952121</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>129.3577933772222</v>
+        <v>-349.2313744777741</v>
       </c>
       <c r="B37" t="n">
-        <v>-10.91238801358111</v>
+        <v>-32.18679599312322</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>143.6794799684103</v>
+        <v>-345.1817624979938</v>
       </c>
       <c r="B38" t="n">
-        <v>-10.45429563144575</v>
+        <v>-31.92078481861691</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>157.8558199890317</v>
+        <v>-341.1526016800782</v>
       </c>
       <c r="B39" t="n">
-        <v>-10.00172197318933</v>
+        <v>-31.65860059984889</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>171.8474169945844</v>
+        <v>-337.1429000155274</v>
       </c>
       <c r="B40" t="n">
-        <v>-9.561439070962779</v>
+        <v>-31.40010273022976</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>185.6498350029415</v>
+        <v>-333.1518748938361</v>
       </c>
       <c r="B41" t="n">
-        <v>-9.134718799549043</v>
+        <v>-31.14517718259718</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>199.2859566441936</v>
+        <v>-329.178685492363</v>
       </c>
       <c r="B42" t="n">
-        <v>-8.716158714998281</v>
+        <v>-30.89370056348348</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>212.7871277597576</v>
+        <v>-325.2226107846294</v>
       </c>
       <c r="B43" t="n">
-        <v>-8.300409454149037</v>
+        <v>-30.64556432199566</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>226.0889753619201</v>
+        <v>-321.282960754703</v>
       </c>
       <c r="B44" t="n">
-        <v>-7.898732228703583</v>
+        <v>-30.40066297095451</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>239.202210306432</v>
+        <v>-317.3590819130402</v>
       </c>
       <c r="B45" t="n">
-        <v>-7.510165648134262</v>
+        <v>-30.15889488558516</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>252.1766534554245</v>
+        <v>-313.4503846987536</v>
       </c>
       <c r="B46" t="n">
-        <v>-7.124037854621956</v>
+        <v>-29.92016619705387</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>264.9740304999615</v>
+        <v>-309.5563137631563</v>
       </c>
       <c r="B47" t="n">
-        <v>-6.748344435944429</v>
+        <v>-29.68438707623923</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>277.6008049525495</v>
+        <v>-305.6763474367812</v>
       </c>
       <c r="B48" t="n">
-        <v>-6.38171040246718</v>
+        <v>-29.45147140070563</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>290.0862598075905</v>
+        <v>-301.8099967626152</v>
       </c>
       <c r="B49" t="n">
-        <v>-6.017587119680583</v>
+        <v>-29.22133678009057</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>302.3759616339639</v>
+        <v>-297.9568022705811</v>
       </c>
       <c r="B50" t="n">
-        <v>-5.668368603348087</v>
+        <v>-28.99390465069502</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>314.5265688945749</v>
+        <v>-294.1163579367847</v>
       </c>
       <c r="B51" t="n">
-        <v>-5.321139596419909</v>
+        <v>-28.76910306294034</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>326.5090586276967</v>
+        <v>-290.2882757308508</v>
       </c>
       <c r="B52" t="n">
-        <v>-4.983657554194742</v>
+        <v>-28.5468621440566</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>338.3485484923358</v>
+        <v>-286.4721385391127</v>
       </c>
       <c r="B53" t="n">
-        <v>-4.649183742882129</v>
+        <v>-28.32710765858004</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>350.0131928206945</v>
+        <v>-282.6676469639272</v>
       </c>
       <c r="B54" t="n">
-        <v>-4.326278277459268</v>
+        <v>-28.10978136224157</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>361.5369998013052</v>
+        <v>-278.8744480580962</v>
       </c>
       <c r="B55" t="n">
-        <v>-4.006091703286324</v>
+        <v>-27.89481722291051</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>372.9016622208125</v>
+        <v>-275.0922487588722</v>
       </c>
       <c r="B56" t="n">
-        <v>-3.694480586106087</v>
+        <v>-27.68215740587307</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>384.1171990886563</v>
+        <v>-271.3207734519904</v>
       </c>
       <c r="B57" t="n">
-        <v>-3.387764127548499</v>
+        <v>-27.47174621219269</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>395.1843630384499</v>
+        <v>-267.5597477125488</v>
       </c>
       <c r="B58" t="n">
-        <v>-3.087987760463471</v>
+        <v>-27.26352800679678</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>406.1084172641565</v>
+        <v>-263.8089136358803</v>
       </c>
       <c r="B59" t="n">
-        <v>-2.792745987835908</v>
+        <v>-27.05744926662644</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>416.8914063869648</v>
+        <v>-260.068056045402</v>
       </c>
       <c r="B60" t="n">
-        <v>-2.501565036298584</v>
+        <v>-26.8534623771172</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>427.5362344049099</v>
+        <v>-256.3369300533951</v>
       </c>
       <c r="B61" t="n">
-        <v>-2.214754513756042</v>
+        <v>-26.65151540293356</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>438.0186435891518</v>
+        <v>-252.6153583686963</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.939750724725633</v>
+        <v>-26.45156595534869</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>448.3872269785055</v>
+        <v>-248.9031241235086</v>
       </c>
       <c r="B63" t="n">
-        <v>-1.662243561746584</v>
+        <v>-26.25356597326263</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>458.6252064100898</v>
+        <v>-245.2000397135344</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.386976741095751</v>
+        <v>-26.05747142675676</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>468.706717160966</v>
+        <v>-241.5059813184401</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.123703476529529</v>
+        <v>-25.86324746613768</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>478.6672221854916</v>
+        <v>-237.8207495254361</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.8607706504831191</v>
+        <v>-25.67084837608117</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>488.4971876843895</v>
+        <v>-234.1442161153508</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.6023631418829146</v>
+        <v>-25.48023874059925</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>498.1890938563849</v>
+        <v>-230.4762184477781</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.3509282449657508</v>
+        <v>-25.29137804529934</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>507.7603148990669</v>
+        <v>-226.8166544019241</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.1014650697303568</v>
+        <v>-25.10423463455518</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>517.2074733386133</v>
+        <v>-223.1653804576484</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1422657049655285</v>
+        <v>-24.9187709506416</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>526.5261584154749</v>
+        <v>-219.5223020518176</v>
       </c>
       <c r="B71" t="n">
-        <v>0.3824927577840507</v>
+        <v>-24.73495651704806</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>-215.8872912405044</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-24.55275609337323</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>-212.2602682445893</v>
+      </c>
+      <c r="B73" t="n">
+        <v>-24.37214153365873</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>-208.6411268930114</v>
+      </c>
+      <c r="B74" t="n">
+        <v>-24.19308084787541</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>-205.0297759199447</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-24.01554432043656</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>-201.4261468742722</v>
+      </c>
+      <c r="B76" t="n">
+        <v>-23.83950582742283</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>-197.830159747274</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-23.6649374552794</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>-194.2417326365624</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-23.49181116981961</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>-190.6608277297893</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-23.32010555433946</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>-187.0873422530425</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-23.1497897541086</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>-183.5212474452465</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-22.98084388354541</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>-179.9624879524983</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-22.81324430204245</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>-176.4110124577</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-22.646968051762</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>-172.8667662351851</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-22.48199188582076</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>-169.3297204934769</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-22.3182964112518</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>-165.7998275441826</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-22.15585965342025</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>-162.2770578095606</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-21.99466243427048</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>-158.7613700637016</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-21.83468397416826</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>-155.2527407245204</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-21.67590627138402</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>-151.751134404164</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-21.51830969687193</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>-148.2565327867427</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-21.36187736237868</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>-144.7689128347823</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-21.20659176372638</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>-141.2882397207078</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-21.05243375976716</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>-137.8145162598768</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-20.89939009241708</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>-134.3477119870239</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-20.74744257223399</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>-130.8878197807778</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-20.59657667125108</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>-127.4348059980117</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-20.44677408877698</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>-123.9886810944142</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-20.29802326689627</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>-120.5494223749855</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-20.15030777558061</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>-117.1170224657908</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-20.0036137004486</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>-113.6914826064419</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-19.85792854503941</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>-110.2727844082305</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-19.71323704780217</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>-106.860918398118</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-19.56952536603817</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>-103.455883073995</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-19.42678104824382</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>-100.0576914383155</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-19.28499403464771</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>-96.66631692131345</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-19.14414838542639</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>-93.28177533333127</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-19.00423470474978</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>-89.90405564744998</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-18.86523974448137</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>-86.53316169151022</v>
+      </c>
+      <c r="B109" t="n">
+        <v>-18.72715263136581</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>-83.16909183546635</v>
+      </c>
+      <c r="B110" t="n">
+        <v>-18.58996177611274</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>-79.81185794946877</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-18.45365787848398</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>-76.4614400727144</v>
+      </c>
+      <c r="B112" t="n">
+        <v>-18.31822683972144</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>-73.11785249175017</v>
+      </c>
+      <c r="B113" t="n">
+        <v>-18.18365995486157</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>-69.78109601086103</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-18.04994667523323</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>-66.451179550634</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-17.91707777817959</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>-63.12809201459923</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-17.78504117289206</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>-59.8118571627229</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-17.65383018744587</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>-56.50247811570387</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-17.52343522573391</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>-53.19993346155022</v>
+      </c>
+      <c r="B119" t="n">
+        <v>-17.39384294868922</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>-49.90425500315826</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-17.26504837940759</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>-46.61543385526067</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-17.13704052019711</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>-43.33348953816236</v>
+      </c>
+      <c r="B122" t="n">
+        <v>-17.00981278641899</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>-40.0584092112795</v>
+      </c>
+      <c r="B123" t="n">
+        <v>-16.88335372401521</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>-36.79021151449422</v>
+      </c>
+      <c r="B124" t="n">
+        <v>-16.75765701330185</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>-33.5288914030892</v>
+      </c>
+      <c r="B125" t="n">
+        <v>-16.63271265260719</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>-30.27446921877959</v>
+      </c>
+      <c r="B126" t="n">
+        <v>-16.50851479933281</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>-27.02693309112121</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-16.38505272976004</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>-23.78632159582706</v>
+      </c>
+      <c r="B128" t="n">
+        <v>-16.26232384295085</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>-20.55259485260009</v>
+      </c>
+      <c r="B129" t="n">
+        <v>-16.1403130595318</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>-17.32579688275771</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-16.01901900281015</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>-14.10591875353204</v>
+      </c>
+      <c r="B131" t="n">
+        <v>-15.89843182334323</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>-10.89295691110271</v>
+      </c>
+      <c r="B132" t="n">
+        <v>-15.77854272597023</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>-7.686938608847767</v>
+      </c>
+      <c r="B133" t="n">
+        <v>-15.65934798611242</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>-4.487860530534255</v>
+      </c>
+      <c r="B134" t="n">
+        <v>-15.54083911718388</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>-1.295721020492082</v>
+      </c>
+      <c r="B135" t="n">
+        <v>-15.42300793007521</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>1.889460848452401</v>
+      </c>
+      <c r="B136" t="n">
+        <v>-15.30584994026984</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>5.067691254558975</v>
+      </c>
+      <c r="B137" t="n">
+        <v>-15.1893564040018</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>8.238955048489665</v>
+      </c>
+      <c r="B138" t="n">
+        <v>-15.07352233944779</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>11.4032433170553</v>
+      </c>
+      <c r="B139" t="n">
+        <v>-14.95834190186742</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>14.56055790057622</v>
+      </c>
+      <c r="B140" t="n">
+        <v>-14.8438075518389</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>17.71089435779293</v>
+      </c>
+      <c r="B141" t="n">
+        <v>-14.72991287961427</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>20.85424285956482</v>
+      </c>
+      <c r="B142" t="n">
+        <v>-14.61665251693596</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>23.99060578892434</v>
+      </c>
+      <c r="B143" t="n">
+        <v>-14.50401924582767</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>27.11997331710234</v>
+      </c>
+      <c r="B144" t="n">
+        <v>-14.39200794557779</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>30.24232962316886</v>
+      </c>
+      <c r="B145" t="n">
+        <v>-14.28061459825465</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>33.35769273792462</v>
+      </c>
+      <c r="B146" t="n">
+        <v>-14.16982965218166</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>36.46603124802262</v>
+      </c>
+      <c r="B147" t="n">
+        <v>-14.05965202175007</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>39.56736311729954</v>
+      </c>
+      <c r="B148" t="n">
+        <v>-13.95007239328689</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>42.66167264274299</v>
+      </c>
+      <c r="B149" t="n">
+        <v>-13.84108721187773</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>45.74896226140002</v>
+      </c>
+      <c r="B150" t="n">
+        <v>-13.7326900769077</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>48.82922755413867</v>
+      </c>
+      <c r="B151" t="n">
+        <v>-13.62487577063313</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>51.90244810235477</v>
+      </c>
+      <c r="B152" t="n">
+        <v>-13.51764193543299</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>54.9686467131745</v>
+      </c>
+      <c r="B153" t="n">
+        <v>-13.410978939737</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>58.02780902525124</v>
+      </c>
+      <c r="B154" t="n">
+        <v>-13.30488365113523</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>61.0799209484712</v>
+      </c>
+      <c r="B155" t="n">
+        <v>-13.19935302280323</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>64.12499928492365</v>
+      </c>
+      <c r="B156" t="n">
+        <v>-13.09437872049797</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>67.16303598916512</v>
+      </c>
+      <c r="B157" t="n">
+        <v>-12.98995691093614</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>70.19401540465216</v>
+      </c>
+      <c r="B158" t="n">
+        <v>-12.88608503157045</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>73.21794654471745</v>
+      </c>
+      <c r="B159" t="n">
+        <v>-12.78275658546734</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>76.2348306044349</v>
+      </c>
+      <c r="B160" t="n">
+        <v>-12.67996635696304</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>79.24465813941407</v>
+      </c>
+      <c r="B161" t="n">
+        <v>-12.5777110737175</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>82.24743153704677</v>
+      </c>
+      <c r="B162" t="n">
+        <v>-12.47598559114696</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>85.24315430701127</v>
+      </c>
+      <c r="B163" t="n">
+        <v>-12.37478473798958</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>88.23181637895682</v>
+      </c>
+      <c r="B164" t="n">
+        <v>-12.27410560392592</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>91.21341574947361</v>
+      </c>
+      <c r="B165" t="n">
+        <v>-12.17394415686858</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>94.18797049485327</v>
+      </c>
+      <c r="B166" t="n">
+        <v>-12.07429287412184</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>97.15545677740596</v>
+      </c>
+      <c r="B167" t="n">
+        <v>-11.97515167770385</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>100.1158975006854</v>
+      </c>
+      <c r="B168" t="n">
+        <v>-11.87651234543306</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>103.0692771782141</v>
+      </c>
+      <c r="B169" t="n">
+        <v>-11.77837372989403</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>106.0156016299314</v>
+      </c>
+      <c r="B170" t="n">
+        <v>-11.68073069449437</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>108.9548685740357</v>
+      </c>
+      <c r="B171" t="n">
+        <v>-11.58357977796098</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>111.8870770446752</v>
+      </c>
+      <c r="B172" t="n">
+        <v>-11.48691746504307</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>114.8122444711455</v>
+      </c>
+      <c r="B173" t="n">
+        <v>-11.39073689401519</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>117.7303553435704</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-11.29503737040755</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>120.6414171005184</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-11.19981400054158</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>123.5454383735789</v>
+      </c>
+      <c r="B176" t="n">
+        <v>-11.10506183634926</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>126.4424076531209</v>
+      </c>
+      <c r="B177" t="n">
+        <v>-11.01077964786876</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>129.3323395273779</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-10.91696163668034</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>132.2152329474625</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-10.82360487002909</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>135.0910902312799</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-10.73070576469852</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>137.9599131063858</v>
+      </c>
+      <c r="B181" t="n">
+        <v>-10.63826124247412</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>140.8217141338421</v>
+      </c>
+      <c r="B182" t="n">
+        <v>-10.54626602032248</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>143.6764829578034</v>
+      </c>
+      <c r="B183" t="n">
+        <v>-10.45471922526662</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>146.5242292960098</v>
+      </c>
+      <c r="B184" t="n">
+        <v>-10.36361639960903</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>149.3649684984404</v>
+      </c>
+      <c r="B185" t="n">
+        <v>-10.27295216469741</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>152.1986937871062</v>
+      </c>
+      <c r="B186" t="n">
+        <v>-10.18272511282567</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>155.0254067233517</v>
+      </c>
+      <c r="B187" t="n">
+        <v>-10.09293262962131</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>157.8451315015031</v>
+      </c>
+      <c r="B188" t="n">
+        <v>-10.00356782581764</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>160.6578450022434</v>
+      </c>
+      <c r="B189" t="n">
+        <v>-9.914632797013743</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>163.4635800283524</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-9.826119090986348</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>166.2623180993677</v>
+      </c>
+      <c r="B191" t="n">
+        <v>-9.738028068839837</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>169.0540809666216</v>
+      </c>
+      <c r="B192" t="n">
+        <v>-9.650353737310894</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>171.8388767572892</v>
+      </c>
+      <c r="B193" t="n">
+        <v>-9.563092410440591</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>174.6166945419903</v>
+      </c>
+      <c r="B194" t="n">
+        <v>-9.476244458352722</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>177.3875618351377</v>
+      </c>
+      <c r="B195" t="n">
+        <v>-9.389802671771749</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>180.1514721694167</v>
+      </c>
+      <c r="B196" t="n">
+        <v>-9.303766680275336</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>182.9084315445101</v>
+      </c>
+      <c r="B197" t="n">
+        <v>-9.218133667574284</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>185.6584649147555</v>
+      </c>
+      <c r="B198" t="n">
+        <v>-9.132897245671975</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>188.4015596257859</v>
+      </c>
+      <c r="B199" t="n">
+        <v>-9.048058308077438</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>191.1377314499772</v>
+      </c>
+      <c r="B200" t="n">
+        <v>-8.963612365191837</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>193.8669829260685</v>
+      </c>
+      <c r="B201" t="n">
+        <v>-8.879557604031548</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>196.5893314536397</v>
+      </c>
+      <c r="B202" t="n">
+        <v>-8.795889460270063</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>199.3047731069066</v>
+      </c>
+      <c r="B203" t="n">
+        <v>-8.712607344201485</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202.0133279546432</v>
+      </c>
+      <c r="B204" t="n">
+        <v>-8.629706112821129</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204.715000568661</v>
+      </c>
+      <c r="B205" t="n">
+        <v>-8.547183952907377</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>207.4097981506017</v>
+      </c>
+      <c r="B206" t="n">
+        <v>-8.465038427290017</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>210.0977227508206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>-8.383268123389913</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>212.778809144213</v>
+      </c>
+      <c r="B208" t="n">
+        <v>-8.301865265498858</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>215.4530337920561</v>
+      </c>
+      <c r="B209" t="n">
+        <v>-8.220833769080505</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>218.1204278745524</v>
+      </c>
+      <c r="B210" t="n">
+        <v>-8.140166749937624</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>220.7809961603052</v>
+      </c>
+      <c r="B211" t="n">
+        <v>-8.059862297612506</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>223.4347440219834</v>
+      </c>
+      <c r="B212" t="n">
+        <v>-7.979919086439489</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>226.0816784244867</v>
+      </c>
+      <c r="B213" t="n">
+        <v>-7.900334869889424</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>228.7218232581615</v>
+      </c>
+      <c r="B214" t="n">
+        <v>-7.821104539130751</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>231.3551779530178</v>
+      </c>
+      <c r="B215" t="n">
+        <v>-7.742227787029117</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>233.9817564837888</v>
+      </c>
+      <c r="B216" t="n">
+        <v>-7.663701312409363</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>236.6015710411354</v>
+      </c>
+      <c r="B217" t="n">
+        <v>-7.585522257019626</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>239.2146282699322</v>
+      </c>
+      <c r="B218" t="n">
+        <v>-7.507689246375911</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>241.8209442027032</v>
+      </c>
+      <c r="B219" t="n">
+        <v>-7.430198670338775</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>244.4205261601406</v>
+      </c>
+      <c r="B220" t="n">
+        <v>-7.353048759017108</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>247.0133846036775</v>
+      </c>
+      <c r="B221" t="n">
+        <v>-7.276237640530869</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>249.5995340475916</v>
+      </c>
+      <c r="B222" t="n">
+        <v>-7.199762203894232</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>252.1789856658358</v>
+      </c>
+      <c r="B223" t="n">
+        <v>-7.123619959060011</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>254.751750435084</v>
+      </c>
+      <c r="B224" t="n">
+        <v>-7.047808893612888</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>257.31783787316</v>
+      </c>
+      <c r="B225" t="n">
+        <v>-6.972327204527408</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>259.8772678452064</v>
+      </c>
+      <c r="B226" t="n">
+        <v>-6.897170905329127</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>262.4300365025316</v>
+      </c>
+      <c r="B227" t="n">
+        <v>-6.822341052088728</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>264.9761773755811</v>
+      </c>
+      <c r="B228" t="n">
+        <v>-6.747830910866142</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>267.5156851681735</v>
+      </c>
+      <c r="B229" t="n">
+        <v>-6.673641997517343</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>270.0485850437698</v>
+      </c>
+      <c r="B230" t="n">
+        <v>-6.599769435540736</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>272.5748670883901</v>
+      </c>
+      <c r="B231" t="n">
+        <v>-6.526215793990886</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>275.0945782388926</v>
+      </c>
+      <c r="B232" t="n">
+        <v>-6.452971631119859</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>277.6076988376453</v>
+      </c>
+      <c r="B233" t="n">
+        <v>-6.380041569429806</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>280.1142641989478</v>
+      </c>
+      <c r="B234" t="n">
+        <v>-6.307418830318177</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>282.6142782016396</v>
+      </c>
+      <c r="B235" t="n">
+        <v>-6.235103276243896</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>285.1077595589808</v>
+      </c>
+      <c r="B236" t="n">
+        <v>-6.163091372448869</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>287.5947108878601</v>
+      </c>
+      <c r="B237" t="n">
+        <v>-6.091383642400628</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>290.0751543747328</v>
+      </c>
+      <c r="B238" t="n">
+        <v>-6.019975997553295</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>292.5490958514175</v>
+      </c>
+      <c r="B239" t="n">
+        <v>-5.948867790554527</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>295.0165545002923</v>
+      </c>
+      <c r="B240" t="n">
+        <v>-5.878055990253846</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>297.4775445115875</v>
+      </c>
+      <c r="B241" t="n">
+        <v>-5.807538386799162</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>299.932077016485</v>
+      </c>
+      <c r="B242" t="n">
+        <v>-5.737313598027692</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>302.3801727325356</v>
+      </c>
+      <c r="B243" t="n">
+        <v>-5.667378047101518</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>304.8218332542154</v>
+      </c>
+      <c r="B244" t="n">
+        <v>-5.597732411387855</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>307.2570781340167</v>
+      </c>
+      <c r="B245" t="n">
+        <v>-5.528373756857741</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>309.6859246660832</v>
+      </c>
+      <c r="B246" t="n">
+        <v>-5.459298978605679</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>312.1083875991541</v>
+      </c>
+      <c r="B247" t="n">
+        <v>-5.390506190577377</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>314.5244662899128</v>
+      </c>
+      <c r="B248" t="n">
+        <v>-5.321997155874254</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>316.9341984090269</v>
+      </c>
+      <c r="B249" t="n">
+        <v>-5.253764187824941</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>319.3375801824552</v>
+      </c>
+      <c r="B250" t="n">
+        <v>-5.185809700246039</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>321.7346358838066</v>
+      </c>
+      <c r="B251" t="n">
+        <v>-5.118129660173357</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>324.1253770227125</v>
+      </c>
+      <c r="B252" t="n">
+        <v>-5.050722693159682</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>326.5098112229128</v>
+      </c>
+      <c r="B253" t="n">
+        <v>-4.983588840130265</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>328.8879653047019</v>
+      </c>
+      <c r="B254" t="n">
+        <v>-4.916723125788494</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>331.2598451814972</v>
+      </c>
+      <c r="B255" t="n">
+        <v>-4.85012583995548</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>333.6254602214378</v>
+      </c>
+      <c r="B256" t="n">
+        <v>-4.783796675154824</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>335.9848418260975</v>
+      </c>
+      <c r="B257" t="n">
+        <v>-4.717729687166059</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>338.3379915273155</v>
+      </c>
+      <c r="B258" t="n">
+        <v>-4.651926238836811</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>340.6849350458421</v>
+      </c>
+      <c r="B259" t="n">
+        <v>-4.586382022666853</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>343.0256714169606</v>
+      </c>
+      <c r="B260" t="n">
+        <v>-4.521099240869232</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>345.360228655472</v>
+      </c>
+      <c r="B261" t="n">
+        <v>-4.45607263254403</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>347.6886269365155</v>
+      </c>
+      <c r="B262" t="n">
+        <v>-4.39129953654779</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>350.010855211745</v>
+      </c>
+      <c r="B263" t="n">
+        <v>-4.326784658490793</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>352.3269550363208</v>
+      </c>
+      <c r="B264" t="n">
+        <v>-4.262519705185134</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>354.6369325494151</v>
+      </c>
+      <c r="B265" t="n">
+        <v>-4.198504957677138</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>356.9407952005436</v>
+      </c>
+      <c r="B266" t="n">
+        <v>-4.134741069739561</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>359.2385681077162</v>
+      </c>
+      <c r="B267" t="n">
+        <v>-4.071223667969008</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>361.5302653017673</v>
+      </c>
+      <c r="B268" t="n">
+        <v>-4.007951426497753</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>363.8159021405576</v>
+      </c>
+      <c r="B269" t="n">
+        <v>-3.944922632542378</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>366.0954914725225</v>
+      </c>
+      <c r="B270" t="n">
+        <v>-3.882136389916149</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>368.3690436771642</v>
+      </c>
+      <c r="B271" t="n">
+        <v>-3.819591876936973</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>370.6365818632794</v>
+      </c>
+      <c r="B272" t="n">
+        <v>-3.75728650080862</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>372.8981170338952</v>
+      </c>
+      <c r="B273" t="n">
+        <v>-3.69521889532276</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>375.1536721448855</v>
+      </c>
+      <c r="B274" t="n">
+        <v>-3.633385747331316</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>377.4032490816111</v>
+      </c>
+      <c r="B275" t="n">
+        <v>-3.571789102545524</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>379.6468757135526</v>
+      </c>
+      <c r="B276" t="n">
+        <v>-3.510424064431868</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>381.8845584280612</v>
+      </c>
+      <c r="B277" t="n">
+        <v>-3.449291668941705</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>384.1163132634015</v>
+      </c>
+      <c r="B278" t="n">
+        <v>-3.38838975720024</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>386.3421670211279</v>
+      </c>
+      <c r="B279" t="n">
+        <v>-3.327714592194698</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>388.562127428448</v>
+      </c>
+      <c r="B280" t="n">
+        <v>-3.267265553024408</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>390.7762061689967</v>
+      </c>
+      <c r="B281" t="n">
+        <v>-3.207042852017591</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>392.9844185535478</v>
+      </c>
+      <c r="B282" t="n">
+        <v>-3.147045505312033</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>395.1867903790031</v>
+      </c>
+      <c r="B283" t="n">
+        <v>-3.087268360208228</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>397.3833242491023</v>
+      </c>
+      <c r="B284" t="n">
+        <v>-3.027713589842947</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>399.5740397237847</v>
+      </c>
+      <c r="B285" t="n">
+        <v>-2.968379196701278</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>401.7589631355382</v>
+      </c>
+      <c r="B286" t="n">
+        <v>-2.909260216128083</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>403.938093200545</v>
+      </c>
+      <c r="B287" t="n">
+        <v>-2.85035990780234</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>406.1114557832545</v>
+      </c>
+      <c r="B288" t="n">
+        <v>-2.79167444583854</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>408.2790573768015</v>
+      </c>
+      <c r="B289" t="n">
+        <v>-2.733204303826263</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>410.4409268621952</v>
+      </c>
+      <c r="B290" t="n">
+        <v>-2.674944463137385</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>412.5970735484506</v>
+      </c>
+      <c r="B291" t="n">
+        <v>-2.616895325592728</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>414.7475038949397</v>
+      </c>
+      <c r="B292" t="n">
+        <v>-2.559057960689707</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>416.8922455949494</v>
+      </c>
+      <c r="B293" t="n">
+        <v>-2.501427771996416</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>419.0313111463882</v>
+      </c>
+      <c r="B294" t="n">
+        <v>-2.444003986822757</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>421.1647091051802</v>
+      </c>
+      <c r="B295" t="n">
+        <v>-2.386787456626144</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>423.2924639524929</v>
+      </c>
+      <c r="B296" t="n">
+        <v>-2.329773705549537</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>425.4145862424116</v>
+      </c>
+      <c r="B297" t="n">
+        <v>-2.272963350279858</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>427.5310876117836</v>
+      </c>
+      <c r="B298" t="n">
+        <v>-2.216356065268939</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>429.6419922613654</v>
+      </c>
+      <c r="B299" t="n">
+        <v>-2.159947396121042</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>431.7473137867497</v>
+      </c>
+      <c r="B300" t="n">
+        <v>-2.103737326003796</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>433.8470579551286</v>
+      </c>
+      <c r="B301" t="n">
+        <v>-2.047726879357032</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>435.9412545277418</v>
+      </c>
+      <c r="B302" t="n">
+        <v>-1.991910298592539</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>438.029900130601</v>
+      </c>
+      <c r="B303" t="n">
+        <v>-1.93629266526149</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>440.1130280127317</v>
+      </c>
+      <c r="B304" t="n">
+        <v>-1.880866616999294</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>442.1906516431125</v>
+      </c>
+      <c r="B305" t="n">
+        <v>-1.825631626908722</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>444.2627759361079</v>
+      </c>
+      <c r="B306" t="n">
+        <v>-1.770589178389155</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>446.3294148758092</v>
+      </c>
+      <c r="B307" t="n">
+        <v>-1.715739315287988</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>448.3905972726382</v>
+      </c>
+      <c r="B308" t="n">
+        <v>-1.661075758076982</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>450.4463320677484</v>
+      </c>
+      <c r="B309" t="n">
+        <v>-1.606599489808443</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>452.4966292175175</v>
+      </c>
+      <c r="B310" t="n">
+        <v>-1.552311102487664</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>454.5415048860616</v>
+      </c>
+      <c r="B311" t="n">
+        <v>-1.49820890972248</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>456.5809831741348</v>
+      </c>
+      <c r="B312" t="n">
+        <v>-1.444288669857271</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>458.6150683785156</v>
+      </c>
+      <c r="B313" t="n">
+        <v>-1.390552345008979</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>460.6437805229072</v>
+      </c>
+      <c r="B314" t="n">
+        <v>-1.336997730122237</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>462.6671347638036</v>
+      </c>
+      <c r="B315" t="n">
+        <v>-1.283623566782951</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>464.6851434559218</v>
+      </c>
+      <c r="B316" t="n">
+        <v>-1.230429280656213</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>466.6978274305096</v>
+      </c>
+      <c r="B317" t="n">
+        <v>-1.177411327734596</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>468.7051937557873</v>
+      </c>
+      <c r="B318" t="n">
+        <v>-1.124571987181219</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>470.7072646086471</v>
+      </c>
+      <c r="B319" t="n">
+        <v>-1.071906913219862</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>472.7040444820921</v>
+      </c>
+      <c r="B320" t="n">
+        <v>-1.019419083899074</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>474.6955587812768</v>
+      </c>
+      <c r="B321" t="n">
+        <v>-0.9671030754274815</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>476.6818155078609</v>
+      </c>
+      <c r="B322" t="n">
+        <v>-0.9149607935248255</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>478.662830988029</v>
+      </c>
+      <c r="B323" t="n">
+        <v>-0.8629902191506944</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>480.6386240829613</v>
+      </c>
+      <c r="B324" t="n">
+        <v>-0.8111886511738229</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>482.6092049215792</v>
+      </c>
+      <c r="B325" t="n">
+        <v>-0.7595567980967225</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>484.5745883270043</v>
+      </c>
+      <c r="B326" t="n">
+        <v>-0.7080934700673345</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>486.5347883047288</v>
+      </c>
+      <c r="B327" t="n">
+        <v>-0.656796949393873</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>488.4898241526716</v>
+      </c>
+      <c r="B328" t="n">
+        <v>-0.6056650847901547</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>490.4397028392164</v>
+      </c>
+      <c r="B329" t="n">
+        <v>-0.5546997119229069</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>492.3844448910833</v>
+      </c>
+      <c r="B330" t="n">
+        <v>-0.5038978723009263</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>494.3240625892352</v>
+      </c>
+      <c r="B331" t="n">
+        <v>-0.453257744527922</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>496.2585664441622</v>
+      </c>
+      <c r="B332" t="n">
+        <v>-0.4027810287400874</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>498.1879778531416</v>
+      </c>
+      <c r="B333" t="n">
+        <v>-0.3524639567947666</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>500.1123030458781</v>
+      </c>
+      <c r="B334" t="n">
+        <v>-0.3023078743234895</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>502.0315641169626</v>
+      </c>
+      <c r="B335" t="n">
+        <v>-0.2523095478962273</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>503.9457724061581</v>
+      </c>
+      <c r="B336" t="n">
+        <v>-0.2024675937375281</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>505.8549376321583</v>
+      </c>
+      <c r="B337" t="n">
+        <v>-0.152784561265703</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>507.7590801773821</v>
+      </c>
+      <c r="B338" t="n">
+        <v>-0.1032557543092484</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>509.6582112236222</v>
+      </c>
+      <c r="B339" t="n">
+        <v>-0.05388115502662653</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>511.5523430783143</v>
+      </c>
+      <c r="B340" t="n">
+        <v>-0.00466128197292821</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>513.4414908863874</v>
+      </c>
+      <c r="B341" t="n">
+        <v>0.04440580142840084</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>515.3256716313854</v>
+      </c>
+      <c r="B342" t="n">
+        <v>0.09332232476210782</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>517.2048907625442</v>
+      </c>
+      <c r="B343" t="n">
+        <v>0.1420860482744616</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>519.0791745213467</v>
+      </c>
+      <c r="B344" t="n">
+        <v>0.1907033682662378</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>520.9485266480824</v>
+      </c>
+      <c r="B345" t="n">
+        <v>0.2391703896060588</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>522.8129604045726</v>
+      </c>
+      <c r="B346" t="n">
+        <v>0.287487382248325</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>524.6724955597374</v>
+      </c>
+      <c r="B347" t="n">
+        <v>0.3356598524951618</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>526.5271401237918</v>
+      </c>
+      <c r="B348" t="n">
+        <v>0.3836844737798359</v>
       </c>
     </row>
   </sheetData>

--- a/Reverse_anglesIn_20.xlsx
+++ b/Reverse_anglesIn_20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B348"/>
+  <dimension ref="A1:B307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,2778 +440,2450 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-526.9193701202585</v>
+        <v>-521.7865581161763</v>
       </c>
       <c r="B2" t="n">
-        <v>-46.42110217010079</v>
+        <v>45.96504754188017</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>-519.0494615908061</v>
+        <v>-513.2596853534096</v>
       </c>
       <c r="B3" t="n">
-        <v>-45.71312592421982</v>
+        <v>45.19855387334068</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-511.6469634236551</v>
+        <v>-505.2514905121213</v>
       </c>
       <c r="B4" t="n">
-        <v>-45.04807127760474</v>
+        <v>44.48085304879136</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>-504.6325919690768</v>
+        <v>-497.6695312355089</v>
       </c>
       <c r="B5" t="n">
-        <v>-44.41978901696871</v>
+        <v>43.80464420687323</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>-497.9453826089914</v>
+        <v>-490.4437097763884</v>
       </c>
       <c r="B6" t="n">
-        <v>-43.82344718925882</v>
+        <v>43.16426028727061</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>-491.5373837060852</v>
+        <v>-483.519487236723</v>
       </c>
       <c r="B7" t="n">
-        <v>-43.25516342131716</v>
+        <v>42.55518784739798</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>-485.3703226699804</v>
+        <v>-476.8536330385321</v>
       </c>
       <c r="B8" t="n">
-        <v>-42.71177857121408</v>
+        <v>41.9737687623672</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>-479.4130364397965</v>
+        <v>-470.4115693067754</v>
       </c>
       <c r="B9" t="n">
-        <v>-42.19066761342619</v>
+        <v>41.41702169866264</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>-473.6399405825251</v>
+        <v>-464.1647309857984</v>
       </c>
       <c r="B10" t="n">
-        <v>-41.68963619486662</v>
+        <v>40.88242231978976</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>-468.0297109811044</v>
+        <v>-458.0896893005369</v>
       </c>
       <c r="B11" t="n">
-        <v>-41.2068208353408</v>
+        <v>40.36786354020782</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>-462.5643291283508</v>
+        <v>-452.1666990479677</v>
       </c>
       <c r="B12" t="n">
-        <v>-40.74061566148124</v>
+        <v>39.87152930916817</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>-457.2285154037512</v>
+        <v>-446.3791815785328</v>
       </c>
       <c r="B13" t="n">
-        <v>-40.28963492914563</v>
+        <v>39.39186693209211</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>-452.0092703440052</v>
+        <v>-440.7130133102055</v>
       </c>
       <c r="B14" t="n">
-        <v>-39.85268123341979</v>
+        <v>38.92752777681168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>-446.8953358246121</v>
+        <v>-435.1560597553238</v>
       </c>
       <c r="B15" t="n">
-        <v>-39.4286979852732</v>
+        <v>38.4773303744088</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>-441.8768777321214</v>
+        <v>-429.6977951466923</v>
       </c>
       <c r="B16" t="n">
-        <v>-39.0167446740367</v>
+        <v>38.0402290263345</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>-436.9453939368614</v>
+        <v>-424.3291576058624</v>
       </c>
       <c r="B17" t="n">
-        <v>-38.6159965221789</v>
+        <v>37.61530868861003</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>-432.0933676894334</v>
+        <v>-419.0421419781773</v>
       </c>
       <c r="B18" t="n">
-        <v>-38.22571059648035</v>
+        <v>37.20174369392611</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>-427.3142115045758</v>
+        <v>-413.8297501321646</v>
       </c>
       <c r="B19" t="n">
-        <v>-37.84522589518926</v>
+        <v>36.79879958067723</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>-422.6020761075512</v>
+        <v>-408.6858258346837</v>
       </c>
       <c r="B20" t="n">
-        <v>-37.47394578283001</v>
+        <v>36.40581876708838</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>-417.9517021691321</v>
+        <v>-403.60491935454</v>
       </c>
       <c r="B21" t="n">
-        <v>-37.11132323724627</v>
+        <v>36.02220832228553</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>-413.3584819076781</v>
+        <v>-398.582125646505</v>
       </c>
       <c r="B22" t="n">
-        <v>-36.75687333415424</v>
+        <v>35.64742361135384</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>-408.8182222556498</v>
+        <v>-393.6130985129179</v>
       </c>
       <c r="B23" t="n">
-        <v>-36.41014613884013</v>
+        <v>35.28097383509692</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>-404.3271852041156</v>
+        <v>-388.6939265450874</v>
       </c>
       <c r="B24" t="n">
-        <v>-36.07073470825699</v>
+        <v>34.92240872422656</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>-399.8819675891671</v>
+        <v>-383.8211509934159</v>
       </c>
       <c r="B25" t="n">
-        <v>-35.73826182912713</v>
+        <v>34.57132360917435</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>-395.4794913427224</v>
+        <v>-378.991615374804</v>
       </c>
       <c r="B26" t="n">
-        <v>-35.41238074815499</v>
+        <v>34.22734174326063</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>-391.1170326833328</v>
+        <v>-374.2024541243961</v>
       </c>
       <c r="B27" t="n">
-        <v>-35.09278069261494</v>
+        <v>33.89011451554661</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>-386.792040812207</v>
+        <v>-369.4510857619557</v>
       </c>
       <c r="B28" t="n">
-        <v>-34.7791648297806</v>
+        <v>33.55932213357492</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>-382.5022126315201</v>
+        <v>-364.7351672711807</v>
       </c>
       <c r="B29" t="n">
-        <v>-34.47126091867814</v>
+        <v>33.2346688512241</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>-378.2454740878231</v>
+        <v>-360.0525787518747</v>
       </c>
       <c r="B30" t="n">
-        <v>-34.16882017692729</v>
+        <v>32.91588201373105</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>-374.0198747040579</v>
+        <v>-355.4013687548629</v>
       </c>
       <c r="B31" t="n">
-        <v>-33.87160412463015</v>
+        <v>32.60270584700876</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>-369.8236814102791</v>
+        <v>-350.7797713934168</v>
       </c>
       <c r="B32" t="n">
-        <v>-33.57939797688485</v>
+        <v>32.2949041928151</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>-365.6552474384575</v>
+        <v>-346.1861812349439</v>
       </c>
       <c r="B33" t="n">
-        <v>-33.29199360265787</v>
+        <v>31.99225842648611</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>-361.5131263808555</v>
+        <v>-341.6190985089272</v>
       </c>
       <c r="B34" t="n">
-        <v>-33.00920573987016</v>
+        <v>31.69456009099585</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>-357.3959236108668</v>
+        <v>-337.0771389273808</v>
       </c>
       <c r="B35" t="n">
-        <v>-32.73085234837481</v>
+        <v>31.40161306343839</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>-353.302406798825</v>
+        <v>-332.5590965328072</v>
       </c>
       <c r="B36" t="n">
-        <v>-32.45676980952121</v>
+        <v>31.11324253238971</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>-349.2313744777741</v>
+        <v>-328.0637985111757</v>
       </c>
       <c r="B37" t="n">
-        <v>-32.18679599312322</v>
+        <v>30.8292756158208</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>-345.1817624979938</v>
+        <v>-323.59018603644</v>
       </c>
       <c r="B38" t="n">
-        <v>-31.92078481861691</v>
+        <v>30.54955272746413</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>-341.1526016800782</v>
+        <v>-319.1372833581339</v>
       </c>
       <c r="B39" t="n">
-        <v>-31.65860059984889</v>
+        <v>30.27392367673787</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>-337.1429000155274</v>
+        <v>-314.7041904130595</v>
       </c>
       <c r="B40" t="n">
-        <v>-31.40010273022976</v>
+        <v>30.00224693107758</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>-333.1518748938361</v>
+        <v>-310.2900846755779</v>
       </c>
       <c r="B41" t="n">
-        <v>-31.14517718259718</v>
+        <v>29.73439004189834</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>-329.178685492363</v>
+        <v>-305.8941897670454</v>
       </c>
       <c r="B42" t="n">
-        <v>-30.89370056348348</v>
+        <v>29.47022576451672</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>-325.2226107846294</v>
+        <v>-301.5157851993927</v>
       </c>
       <c r="B43" t="n">
-        <v>-30.64556432199566</v>
+        <v>29.20963330643388</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>-321.282960754703</v>
+        <v>-297.1542238180378</v>
       </c>
       <c r="B44" t="n">
-        <v>-30.40066297095451</v>
+        <v>28.95250105078012</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>-317.3590819130402</v>
+        <v>-292.8088975443238</v>
       </c>
       <c r="B45" t="n">
-        <v>-30.15889488558516</v>
+        <v>28.69872197240596</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>-313.4503846987536</v>
+        <v>-288.4792522604041</v>
       </c>
       <c r="B46" t="n">
-        <v>-29.92016619705387</v>
+        <v>28.44819579803249</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>-309.5563137631563</v>
+        <v>-284.1647376320111</v>
       </c>
       <c r="B47" t="n">
-        <v>-29.68438707623923</v>
+        <v>28.2008221592334</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>-305.6763474367812</v>
+        <v>-279.8648883302142</v>
       </c>
       <c r="B48" t="n">
-        <v>-29.45147140070563</v>
+        <v>27.95651197456144</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>-301.8099967626152</v>
+        <v>-275.5792467753352</v>
       </c>
       <c r="B49" t="n">
-        <v>-29.22133678009057</v>
+        <v>27.71517685234915</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>-297.9568022705811</v>
+        <v>-271.307377868439</v>
       </c>
       <c r="B50" t="n">
-        <v>-28.99390465069502</v>
+        <v>27.47673107322593</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>-294.1163579367847</v>
+        <v>-267.0489327715972</v>
       </c>
       <c r="B51" t="n">
-        <v>-28.76910306294034</v>
+        <v>27.24110083855653</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>-290.2882757308508</v>
+        <v>-262.8035082448545</v>
       </c>
       <c r="B52" t="n">
-        <v>-28.5468621440566</v>
+        <v>27.00820438008896</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>-286.4721385391127</v>
+        <v>-258.5707986539107</v>
       </c>
       <c r="B53" t="n">
-        <v>-28.32710765858004</v>
+        <v>26.7779734635939</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>-282.6676469639272</v>
+        <v>-254.3504605575581</v>
       </c>
       <c r="B54" t="n">
-        <v>-28.10978136224157</v>
+        <v>26.55033436686903</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>-278.8744480580962</v>
+        <v>-250.1422440212216</v>
       </c>
       <c r="B55" t="n">
-        <v>-27.89481722291051</v>
+        <v>26.32522657695352</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>-275.0922487588722</v>
+        <v>-245.9458491700985</v>
       </c>
       <c r="B56" t="n">
-        <v>-27.68215740587307</v>
+        <v>26.10258235278883</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>-271.3207734519904</v>
+        <v>-241.7610387894444</v>
       </c>
       <c r="B57" t="n">
-        <v>-27.47174621219269</v>
+        <v>25.88234279360463</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>-267.5597477125488</v>
+        <v>-237.5875773446703</v>
       </c>
       <c r="B58" t="n">
-        <v>-27.26352800679678</v>
+        <v>25.66444930953262</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>-263.8089136358803</v>
+        <v>-233.4252626015173</v>
       </c>
       <c r="B59" t="n">
-        <v>-27.05744926662644</v>
+        <v>25.44884806492461</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>-260.068056045402</v>
+        <v>-229.2738656995529</v>
       </c>
       <c r="B60" t="n">
-        <v>-26.8534623771172</v>
+        <v>25.2354813851345</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>-256.3369300533951</v>
+        <v>-225.1332235346473</v>
       </c>
       <c r="B61" t="n">
-        <v>-26.65151540293356</v>
+        <v>25.02430118595914</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>-252.6153583686963</v>
+        <v>-221.0031531228296</v>
       </c>
       <c r="B62" t="n">
-        <v>-26.45156595534869</v>
+        <v>24.81525658594908</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>-248.9031241235086</v>
+        <v>-216.8835002765274</v>
       </c>
       <c r="B63" t="n">
-        <v>-26.25356597326263</v>
+        <v>24.60830088698236</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>-245.2000397135344</v>
+        <v>-212.7741075294816</v>
       </c>
       <c r="B64" t="n">
-        <v>-26.05747142675676</v>
+        <v>24.40338714734357</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>-241.5059813184401</v>
+        <v>-208.6748521685518</v>
       </c>
       <c r="B65" t="n">
-        <v>-25.86324746613768</v>
+        <v>24.20047351134242</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>-237.8207495254361</v>
+        <v>-204.5855901556943</v>
       </c>
       <c r="B66" t="n">
-        <v>-25.67084837608117</v>
+        <v>23.99951519163601</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>-234.1442161153508</v>
+        <v>-200.5062115803705</v>
       </c>
       <c r="B67" t="n">
-        <v>-25.48023874059925</v>
+        <v>23.80047255660312</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>-230.4762184477781</v>
+        <v>-196.4366230382012</v>
       </c>
       <c r="B68" t="n">
-        <v>-25.29137804529934</v>
+        <v>23.60330851000598</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>-226.8166544019241</v>
+        <v>-192.3766932557823</v>
       </c>
       <c r="B69" t="n">
-        <v>-25.10423463455518</v>
+        <v>23.40798064059582</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>-223.1653804576484</v>
+        <v>-188.3263458245067</v>
       </c>
       <c r="B70" t="n">
-        <v>-24.9187709506416</v>
+        <v>23.2144547020621</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>-219.5223020518176</v>
+        <v>-184.2854964281499</v>
       </c>
       <c r="B71" t="n">
-        <v>-24.73495651704806</v>
+        <v>23.02269552307423</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>-215.8872912405044</v>
+        <v>-180.2540602743238</v>
       </c>
       <c r="B72" t="n">
-        <v>-24.55275609337323</v>
+        <v>22.83266803829719</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>-212.2602682445893</v>
+        <v>-176.2319745801206</v>
       </c>
       <c r="B73" t="n">
-        <v>-24.37214153365873</v>
+        <v>22.64434064565134</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>-208.6411268930114</v>
+        <v>-172.2191678106266</v>
       </c>
       <c r="B74" t="n">
-        <v>-24.19308084787541</v>
+        <v>22.45768073355444</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>-205.0297759199447</v>
+        <v>-168.2155742902441</v>
       </c>
       <c r="B75" t="n">
-        <v>-24.01554432043656</v>
+        <v>22.27265658449043</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>-201.4261468742722</v>
+        <v>-164.2211343614961</v>
       </c>
       <c r="B76" t="n">
-        <v>-23.83950582742283</v>
+        <v>22.0892378150022</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>-197.830159747274</v>
+        <v>-160.2358228721107</v>
       </c>
       <c r="B77" t="n">
-        <v>-23.6649374552794</v>
+        <v>21.9073992755824</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>-194.2417326365624</v>
+        <v>-156.2595681404271</v>
       </c>
       <c r="B78" t="n">
-        <v>-23.49181116981961</v>
+        <v>21.72710911265944</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>-190.6608277297893</v>
+        <v>-152.2923325787009</v>
       </c>
       <c r="B79" t="n">
-        <v>-23.32010555433946</v>
+        <v>21.54834090429368</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>-187.0873422530425</v>
+        <v>-148.3340831733899</v>
       </c>
       <c r="B80" t="n">
-        <v>-23.1497897541086</v>
+        <v>21.3710689369446</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>-183.5212474452465</v>
+        <v>-144.3847905912356</v>
       </c>
       <c r="B81" t="n">
-        <v>-22.98084388354541</v>
+        <v>21.19526850999895</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>-179.9624879524983</v>
+        <v>-140.4444152620005</v>
       </c>
       <c r="B82" t="n">
-        <v>-22.81324430204245</v>
+        <v>21.02091350921721</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>-176.4110124577</v>
+        <v>-136.5129286429888</v>
       </c>
       <c r="B83" t="n">
-        <v>-22.646968051762</v>
+        <v>20.84797970127581</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>-172.8667662351851</v>
+        <v>-132.590319404459</v>
       </c>
       <c r="B84" t="n">
-        <v>-22.48199188582076</v>
+        <v>20.67644577606129</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>-169.3297204934769</v>
+        <v>-128.6765515926647</v>
       </c>
       <c r="B85" t="n">
-        <v>-22.3182964112518</v>
+        <v>20.50628686436834</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>-165.7998275441826</v>
+        <v>-124.7716131520739</v>
       </c>
       <c r="B86" t="n">
-        <v>-22.15585965342025</v>
+        <v>20.33748201773722</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>-162.2770578095606</v>
+        <v>-120.8754809337464</v>
       </c>
       <c r="B87" t="n">
-        <v>-21.99466243427048</v>
+        <v>20.17000884567443</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>-158.7613700637016</v>
+        <v>-116.9881623689562</v>
       </c>
       <c r="B88" t="n">
-        <v>-21.83468397416826</v>
+        <v>20.00384980146272</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>-155.2527407245204</v>
+        <v>-113.1096326868819</v>
       </c>
       <c r="B89" t="n">
-        <v>-21.67590627138402</v>
+        <v>19.83898272608217</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>-151.751134404164</v>
+        <v>-109.2398562660606</v>
       </c>
       <c r="B90" t="n">
-        <v>-21.51830969687193</v>
+        <v>19.67538402288856</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>-148.2565327867427</v>
+        <v>-105.3788742642046</v>
       </c>
       <c r="B91" t="n">
-        <v>-21.36187736237868</v>
+        <v>19.51304210998292</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>-144.7689128347823</v>
+        <v>-101.5266484285992</v>
       </c>
       <c r="B92" t="n">
-        <v>-21.20659176372638</v>
+        <v>19.35193349892916</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>-141.2882397207078</v>
+        <v>-97.68317063212868</v>
       </c>
       <c r="B93" t="n">
-        <v>-21.05243375976716</v>
+        <v>19.1920394548556</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>-137.8145162598768</v>
+        <v>-93.84845311386508</v>
       </c>
       <c r="B94" t="n">
-        <v>-20.89939009241708</v>
+        <v>19.03334480016303</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>-134.3477119870239</v>
+        <v>-90.02249724960579</v>
       </c>
       <c r="B95" t="n">
-        <v>-20.74744257223399</v>
+        <v>18.87583282745923</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>-130.8878197807778</v>
+        <v>-86.20528696300387</v>
       </c>
       <c r="B96" t="n">
-        <v>-20.59657667125108</v>
+        <v>18.71948430790597</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>-127.4348059980117</v>
+        <v>-82.39682553733758</v>
       </c>
       <c r="B97" t="n">
-        <v>-20.44677408877698</v>
+        <v>18.56428345496996</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>-123.9886810944142</v>
+        <v>-78.59712643397535</v>
       </c>
       <c r="B98" t="n">
-        <v>-20.29802326689627</v>
+        <v>18.41021607954286</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>-120.5494223749855</v>
+        <v>-74.80618365244169</v>
       </c>
       <c r="B99" t="n">
-        <v>-20.15030777558061</v>
+        <v>18.25726533229392</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>-117.1170224657908</v>
+        <v>-71.02399212902263</v>
       </c>
       <c r="B100" t="n">
-        <v>-20.0036137004486</v>
+        <v>18.10541477905159</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>-113.6914826064419</v>
+        <v>-67.25057481634373</v>
       </c>
       <c r="B101" t="n">
-        <v>-19.85792854503941</v>
+        <v>17.95465250573763</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>-110.2727844082305</v>
+        <v>-63.48592966546635</v>
       </c>
       <c r="B102" t="n">
-        <v>-19.71323704780217</v>
+        <v>17.80496296124671</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>-106.860918398118</v>
+        <v>-59.73004876851147</v>
       </c>
       <c r="B103" t="n">
-        <v>-19.56952536603817</v>
+        <v>17.65632995613705</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>-103.455883073995</v>
+        <v>-55.98295742147389</v>
       </c>
       <c r="B104" t="n">
-        <v>-19.42678104824382</v>
+        <v>17.50874271512904</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>-100.0576914383155</v>
+        <v>-52.24465698057159</v>
       </c>
       <c r="B105" t="n">
-        <v>-19.28499403464771</v>
+        <v>17.36218688985271</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>-96.66631692131345</v>
+        <v>-48.51515468355156</v>
       </c>
       <c r="B106" t="n">
-        <v>-19.14414838542639</v>
+        <v>17.21664939155953</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>-93.28177533333127</v>
+        <v>-44.79444713873886</v>
       </c>
       <c r="B107" t="n">
-        <v>-19.00423470474978</v>
+        <v>17.07211559404826</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>-89.90405564744998</v>
+        <v>-41.08254950518663</v>
       </c>
       <c r="B108" t="n">
-        <v>-18.86523974448137</v>
+        <v>16.92857410809903</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>-86.53316169151022</v>
+        <v>-37.37947851451929</v>
       </c>
       <c r="B109" t="n">
-        <v>-18.72715263136581</v>
+        <v>16.78601395584853</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>-83.16909183546635</v>
+        <v>-33.68523164695711</v>
       </c>
       <c r="B110" t="n">
-        <v>-18.58996177611274</v>
+        <v>16.64442141759227</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>-79.81185794946877</v>
+        <v>-29.99982154829378</v>
       </c>
       <c r="B111" t="n">
-        <v>-18.45365787848398</v>
+        <v>16.50378525580456</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>-76.4614400727144</v>
+        <v>-26.32325202260466</v>
       </c>
       <c r="B112" t="n">
-        <v>-18.31822683972144</v>
+        <v>16.36409327182164</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>-73.11785249175017</v>
+        <v>-22.65554236584893</v>
       </c>
       <c r="B113" t="n">
-        <v>-18.18365995486157</v>
+        <v>16.22533577401066</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>-69.78109601086103</v>
+        <v>-18.99669831886315</v>
       </c>
       <c r="B114" t="n">
-        <v>-18.04994667523323</v>
+        <v>16.0875012445287</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>-66.451179550634</v>
+        <v>-15.34672728348341</v>
       </c>
       <c r="B115" t="n">
-        <v>-17.91707777817959</v>
+        <v>15.95057856527473</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>-63.12809201459923</v>
+        <v>-11.70562454130144</v>
       </c>
       <c r="B116" t="n">
-        <v>-17.78504117289206</v>
+        <v>15.81455490980139</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>-59.8118571627229</v>
+        <v>-8.07342617775663</v>
       </c>
       <c r="B117" t="n">
-        <v>-17.65383018744587</v>
+        <v>15.6794243635673</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>-56.50247811570387</v>
+        <v>-4.450118209396394</v>
       </c>
       <c r="B118" t="n">
-        <v>-17.52343522573391</v>
+        <v>15.54517289242257</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>-53.19993346155022</v>
+        <v>-0.8357189895657343</v>
       </c>
       <c r="B119" t="n">
-        <v>-17.39384294868922</v>
+        <v>15.41179216177112</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>-49.90425500315826</v>
+        <v>2.769762716658371</v>
       </c>
       <c r="B120" t="n">
-        <v>-17.26504837940759</v>
+        <v>15.27927235530298</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>-46.61543385526067</v>
+        <v>6.366312504331359</v>
       </c>
       <c r="B121" t="n">
-        <v>-17.13704052019711</v>
+        <v>15.1476048181983</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>-43.33348953816236</v>
+        <v>9.953939781061861</v>
       </c>
       <c r="B122" t="n">
-        <v>-17.00981278641899</v>
+        <v>15.0167772398909</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>-40.0584092112795</v>
+        <v>13.53261754578894</v>
       </c>
       <c r="B123" t="n">
-        <v>-16.88335372401521</v>
+        <v>14.88678340667405</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>-36.79021151449422</v>
+        <v>17.1023426462251</v>
       </c>
       <c r="B124" t="n">
-        <v>-16.75765701330185</v>
+        <v>14.75761343999597</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>-33.5288914030892</v>
+        <v>20.66311867981199</v>
       </c>
       <c r="B125" t="n">
-        <v>-16.63271265260719</v>
+        <v>14.62925661535955</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>-30.27446921877959</v>
+        <v>24.21491340550435</v>
       </c>
       <c r="B126" t="n">
-        <v>-16.50851479933281</v>
+        <v>14.50170825613402</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>-27.02693309112121</v>
+        <v>27.75774625205991</v>
       </c>
       <c r="B127" t="n">
-        <v>-16.38505272976004</v>
+        <v>14.37495533391648</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>-23.78632159582706</v>
+        <v>31.29159635475273</v>
       </c>
       <c r="B128" t="n">
-        <v>-16.26232384295085</v>
+        <v>14.2489916869391</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>-20.55259485260009</v>
+        <v>34.81646031554298</v>
       </c>
       <c r="B129" t="n">
-        <v>-16.1403130595318</v>
+        <v>14.12380847222028</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>-17.32579688275771</v>
+        <v>38.33233471830792</v>
       </c>
       <c r="B130" t="n">
-        <v>-16.01901900281015</v>
+        <v>13.99939704069716</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>-14.10591875353204</v>
+        <v>41.83920590335902</v>
       </c>
       <c r="B131" t="n">
-        <v>-15.89843182334323</v>
+        <v>13.87575071560305</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>-10.89295691110271</v>
+        <v>45.33705779284956</v>
       </c>
       <c r="B132" t="n">
-        <v>-15.77854272597023</v>
+        <v>13.75286326545849</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>-7.686938608847767</v>
+        <v>48.82591623754001</v>
       </c>
       <c r="B133" t="n">
-        <v>-15.65934798611242</v>
+        <v>13.63072176499109</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>-4.487860530534255</v>
+        <v>52.30574905703181</v>
       </c>
       <c r="B134" t="n">
-        <v>-15.54083911718388</v>
+        <v>13.50932310456526</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>-1.295721020492082</v>
+        <v>55.77656017120994</v>
       </c>
       <c r="B135" t="n">
-        <v>-15.42300793007521</v>
+        <v>13.3886584403495</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>1.889460848452401</v>
+        <v>59.23834981365539</v>
       </c>
       <c r="B136" t="n">
-        <v>-15.30584994026984</v>
+        <v>13.26871948868769</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>5.067691254558975</v>
+        <v>62.69111109053358</v>
       </c>
       <c r="B137" t="n">
-        <v>-15.1893564040018</v>
+        <v>13.14949960230526</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>8.238955048489665</v>
+        <v>66.13482957131897</v>
       </c>
       <c r="B138" t="n">
-        <v>-15.07352233944779</v>
+        <v>13.03099346267967</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>11.4032433170553</v>
+        <v>69.56951265716113</v>
       </c>
       <c r="B139" t="n">
-        <v>-14.95834190186742</v>
+        <v>12.91319219204504</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>14.56055790057622</v>
+        <v>72.99515895103825</v>
       </c>
       <c r="B140" t="n">
-        <v>-14.8438075518389</v>
+        <v>12.79608871783768</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>17.71089435779293</v>
+        <v>76.41175457463098</v>
       </c>
       <c r="B141" t="n">
-        <v>-14.72991287961427</v>
+        <v>12.67967817286642</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>20.85424285956482</v>
+        <v>79.81931310771786</v>
       </c>
       <c r="B142" t="n">
-        <v>-14.61665251693596</v>
+        <v>12.56395115413246</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>23.99060578892434</v>
+        <v>83.21782683681785</v>
       </c>
       <c r="B143" t="n">
-        <v>-14.50401924582767</v>
+        <v>12.44890210555798</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>27.11997331710234</v>
+        <v>86.60728356303333</v>
       </c>
       <c r="B144" t="n">
-        <v>-14.39200794557779</v>
+        <v>12.33452647105457</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>30.24232962316886</v>
+        <v>89.98769042586201</v>
       </c>
       <c r="B145" t="n">
-        <v>-14.28061459825465</v>
+        <v>12.22081636170741</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>33.35769273792462</v>
+        <v>93.35904833891881</v>
       </c>
       <c r="B146" t="n">
-        <v>-14.16982965218166</v>
+        <v>12.10776541566249</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>36.46603124802262</v>
+        <v>96.72136359683891</v>
       </c>
       <c r="B147" t="n">
-        <v>-14.05965202175007</v>
+        <v>11.99536613083531</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>39.56736311729954</v>
+        <v>100.0746202566375</v>
       </c>
       <c r="B148" t="n">
-        <v>-13.95007239328689</v>
+        <v>11.88361533052332</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>42.66167264274299</v>
+        <v>103.41882828308</v>
       </c>
       <c r="B149" t="n">
-        <v>-13.84108721187773</v>
+        <v>11.77250541565448</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>45.74896226140002</v>
+        <v>106.7539851865174</v>
       </c>
       <c r="B150" t="n">
-        <v>-13.7326900769077</v>
+        <v>11.66203098752391</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>48.82922755413867</v>
+        <v>110.0800955114746</v>
       </c>
       <c r="B151" t="n">
-        <v>-13.62487577063313</v>
+        <v>11.55218567257027</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>51.90244810235477</v>
+        <v>113.3971651383373</v>
       </c>
       <c r="B152" t="n">
-        <v>-13.51764193543299</v>
+        <v>11.44296308996737</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>54.9686467131745</v>
+        <v>116.7051876666182</v>
       </c>
       <c r="B153" t="n">
-        <v>-13.410978939737</v>
+        <v>11.33435904855467</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>58.02780902525124</v>
+        <v>120.0041683531092</v>
       </c>
       <c r="B154" t="n">
-        <v>-13.30488365113523</v>
+        <v>11.2263675138295</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>61.0799209484712</v>
+        <v>123.2941114858851</v>
       </c>
       <c r="B155" t="n">
-        <v>-13.19935302280323</v>
+        <v>11.11898268944935</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>64.12499928492365</v>
+        <v>126.575022716603</v>
       </c>
       <c r="B156" t="n">
-        <v>-13.09437872049797</v>
+        <v>11.0121987612494</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>67.16303598916512</v>
+        <v>129.8469091258095</v>
       </c>
       <c r="B157" t="n">
-        <v>-12.98995691093614</v>
+        <v>10.90600988751937</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>70.19401540465216</v>
+        <v>133.1097543806404</v>
       </c>
       <c r="B158" t="n">
-        <v>-12.88608503157045</v>
+        <v>10.8004143671561</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>73.21794654471745</v>
+        <v>136.3635849830571</v>
       </c>
       <c r="B159" t="n">
-        <v>-12.78275658546734</v>
+        <v>10.69540304566665</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>76.2348306044349</v>
+        <v>139.6083975343417</v>
       </c>
       <c r="B160" t="n">
-        <v>-12.67996635696304</v>
+        <v>10.59097233600721</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>79.24465813941407</v>
+        <v>142.8442032680289</v>
       </c>
       <c r="B161" t="n">
-        <v>-12.5777110737175</v>
+        <v>10.48711608150069</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>82.24743153704677</v>
+        <v>146.0710036977924</v>
       </c>
       <c r="B162" t="n">
-        <v>-12.47598559114696</v>
+        <v>10.38383004139406</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>85.24315430701127</v>
+        <v>149.288804921723</v>
       </c>
       <c r="B163" t="n">
-        <v>-12.37478473798958</v>
+        <v>10.28110922785416</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>88.23181637895682</v>
+        <v>152.4976089934281</v>
       </c>
       <c r="B164" t="n">
-        <v>-12.27410560392592</v>
+        <v>10.17894958463996</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>91.21341574947361</v>
+        <v>155.6974348580706</v>
       </c>
       <c r="B165" t="n">
-        <v>-12.17394415686858</v>
+        <v>10.07734420592916</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>94.18797049485327</v>
+        <v>158.8882782569133</v>
       </c>
       <c r="B166" t="n">
-        <v>-12.07429287412184</v>
+        <v>9.976290330304678</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>97.15545677740596</v>
+        <v>162.0701517575397</v>
       </c>
       <c r="B167" t="n">
-        <v>-11.97515167770385</v>
+        <v>9.875782347943485</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>100.1158975006854</v>
+        <v>165.2430597819362</v>
       </c>
       <c r="B168" t="n">
-        <v>-11.87651234543306</v>
+        <v>9.775816400355152</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>103.0692771782141</v>
+        <v>168.4070181804084</v>
       </c>
       <c r="B169" t="n">
-        <v>-11.77837372989403</v>
+        <v>9.676386356648608</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>106.0156016299314</v>
+        <v>171.5620277490829</v>
       </c>
       <c r="B170" t="n">
-        <v>-11.68073069449437</v>
+        <v>9.57748935108982</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>108.9548685740357</v>
+        <v>174.7081088190414</v>
       </c>
       <c r="B171" t="n">
-        <v>-11.58357977796098</v>
+        <v>9.479118587075641</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>111.8870770446752</v>
+        <v>177.8452532287777</v>
       </c>
       <c r="B172" t="n">
-        <v>-11.48691746504307</v>
+        <v>9.381273161823374</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>114.8122444711455</v>
+        <v>180.9734979694812</v>
       </c>
       <c r="B173" t="n">
-        <v>-11.39073689401519</v>
+        <v>9.283943494454961</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>117.7303553435704</v>
+        <v>184.092829915927</v>
       </c>
       <c r="B174" t="n">
-        <v>-11.29503737040755</v>
+        <v>9.187129441753246</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>120.6414171005184</v>
+        <v>187.2032581956259</v>
       </c>
       <c r="B175" t="n">
-        <v>-11.19981400054158</v>
+        <v>9.090827369563701</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>123.5454383735789</v>
+        <v>190.3048094032442</v>
       </c>
       <c r="B176" t="n">
-        <v>-11.10506183634926</v>
+        <v>8.995029886373366</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>126.4424076531209</v>
+        <v>193.3974914076961</v>
       </c>
       <c r="B177" t="n">
-        <v>-11.01077964786876</v>
+        <v>8.899733296369543</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>129.3323395273779</v>
+        <v>196.4812980287645</v>
       </c>
       <c r="B178" t="n">
-        <v>-10.91696163668034</v>
+        <v>8.804937113133688</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>132.2152329474625</v>
+        <v>199.5562631157374</v>
       </c>
       <c r="B179" t="n">
-        <v>-10.82360487002909</v>
+        <v>8.71063301706786</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>135.0910902312799</v>
+        <v>202.6223937606995</v>
       </c>
       <c r="B180" t="n">
-        <v>-10.73070576469852</v>
+        <v>8.616817679742384</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>137.9599131063858</v>
+        <v>205.6796977640337</v>
       </c>
       <c r="B181" t="n">
-        <v>-10.63826124247412</v>
+        <v>8.523488178370348</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>140.8217141338421</v>
+        <v>208.7281909552389</v>
       </c>
       <c r="B182" t="n">
-        <v>-10.54626602032248</v>
+        <v>8.430640005847248</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>143.6764829578034</v>
+        <v>211.7678863782653</v>
       </c>
       <c r="B183" t="n">
-        <v>-10.45471922526662</v>
+        <v>8.338269049281353</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>146.5242292960098</v>
+        <v>214.7987941134046</v>
       </c>
       <c r="B184" t="n">
-        <v>-10.36361639960903</v>
+        <v>8.246372400797293</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>149.3649684984404</v>
+        <v>217.8209314065897</v>
       </c>
       <c r="B185" t="n">
-        <v>-10.27295216469741</v>
+        <v>8.154945252593702</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>152.1986937871062</v>
+        <v>220.83430734909</v>
       </c>
       <c r="B186" t="n">
-        <v>-10.18272511282567</v>
+        <v>8.063984979559184</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>155.0254067233517</v>
+        <v>223.8389462470792</v>
       </c>
       <c r="B187" t="n">
-        <v>-10.09293262962131</v>
+        <v>7.973485739974332</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>157.8451315015031</v>
+        <v>226.8348545857262</v>
       </c>
       <c r="B188" t="n">
-        <v>-10.00356782581764</v>
+        <v>7.883445362689751</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>160.6578450022434</v>
+        <v>229.8220425207397</v>
       </c>
       <c r="B189" t="n">
-        <v>-9.914632797013743</v>
+        <v>7.793861153515654</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>163.4635800283524</v>
+        <v>232.8005381662487</v>
       </c>
       <c r="B190" t="n">
-        <v>-9.826119090986348</v>
+        <v>7.704726862208394</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>166.2623180993677</v>
+        <v>235.7703432261726</v>
       </c>
       <c r="B191" t="n">
-        <v>-9.738028068839837</v>
+        <v>7.616041706620406</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>169.0540809666216</v>
+        <v>238.7314948866284</v>
       </c>
       <c r="B192" t="n">
-        <v>-9.650353737310894</v>
+        <v>7.527797736168039</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>171.8388767572892</v>
+        <v>241.6839815928314</v>
       </c>
       <c r="B193" t="n">
-        <v>-9.563092410440591</v>
+        <v>7.439996840581024</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>174.6166945419903</v>
+        <v>244.6278389665973</v>
       </c>
       <c r="B194" t="n">
-        <v>-9.476244458352722</v>
+        <v>7.352631582308431</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>177.3875618351377</v>
+        <v>247.5630730307649</v>
       </c>
       <c r="B195" t="n">
-        <v>-9.389802671771749</v>
+        <v>7.265700798920473</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>180.1514721694167</v>
+        <v>250.4897093482355</v>
       </c>
       <c r="B196" t="n">
-        <v>-9.303766680275336</v>
+        <v>7.179199132340207</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>182.9084315445101</v>
+        <v>253.4077597974695</v>
       </c>
       <c r="B197" t="n">
-        <v>-9.218133667574284</v>
+        <v>7.093124074655495</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>185.6584649147555</v>
+        <v>256.3172363504748</v>
       </c>
       <c r="B198" t="n">
-        <v>-9.132897245671975</v>
+        <v>7.007473390622236</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>188.4015596257859</v>
+        <v>259.2181597575459</v>
       </c>
       <c r="B199" t="n">
-        <v>-9.048058308077438</v>
+        <v>6.922243084176499</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>191.1377314499772</v>
+        <v>262.1105577147027</v>
       </c>
       <c r="B200" t="n">
-        <v>-8.963612365191837</v>
+        <v>6.83742758341456</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>193.8669829260685</v>
+        <v>264.9944291445306</v>
       </c>
       <c r="B201" t="n">
-        <v>-8.879557604031548</v>
+        <v>6.75302780916384</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>196.5893314536397</v>
+        <v>267.8698138396004</v>
       </c>
       <c r="B202" t="n">
-        <v>-8.795889460270063</v>
+        <v>6.669035662071324</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>199.3047731069066</v>
+        <v>270.7367028399291</v>
       </c>
       <c r="B203" t="n">
-        <v>-8.712607344201485</v>
+        <v>6.58545374259935</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>202.0133279546432</v>
+        <v>273.595141038627</v>
       </c>
       <c r="B204" t="n">
-        <v>-8.629706112821129</v>
+        <v>6.502273254591467</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>204.715000568661</v>
+        <v>276.4451316152224</v>
       </c>
       <c r="B205" t="n">
-        <v>-8.547183952907377</v>
+        <v>6.419494267061184</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>207.4097981506017</v>
+        <v>279.286706178981</v>
       </c>
       <c r="B206" t="n">
-        <v>-8.465038427290017</v>
+        <v>6.33711087076442</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>210.0977227508206</v>
+        <v>282.1198666995151</v>
       </c>
       <c r="B207" t="n">
-        <v>-8.383268123389913</v>
+        <v>6.255123623369476</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>212.778809144213</v>
+        <v>284.9446368355547</v>
       </c>
       <c r="B208" t="n">
-        <v>-8.301865265498858</v>
+        <v>6.173528504082974</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>215.4530337920561</v>
+        <v>287.7610353865841</v>
       </c>
       <c r="B209" t="n">
-        <v>-8.220833769080505</v>
+        <v>6.092322532843633</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>218.1204278745524</v>
+        <v>290.5690926732387</v>
       </c>
       <c r="B210" t="n">
-        <v>-8.140166749937624</v>
+        <v>6.01150035606659</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>220.7809961603052</v>
+        <v>293.3688211381767</v>
       </c>
       <c r="B211" t="n">
-        <v>-8.059862297612506</v>
+        <v>5.931060475335489</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>223.4347440219834</v>
+        <v>296.160238322634</v>
       </c>
       <c r="B212" t="n">
-        <v>-7.979919086439489</v>
+        <v>5.851000426172082</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>226.0816784244867</v>
+        <v>298.9433634841329</v>
       </c>
       <c r="B213" t="n">
-        <v>-7.900334869889424</v>
+        <v>5.771317377963638</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>228.7218232581615</v>
+        <v>301.7182208360513</v>
       </c>
       <c r="B214" t="n">
-        <v>-7.821104539130751</v>
+        <v>5.692007528111207</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>231.3551779530178</v>
+        <v>304.4848282802054</v>
       </c>
       <c r="B215" t="n">
-        <v>-7.742227787029117</v>
+        <v>5.613068517735835</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>233.9817564837888</v>
+        <v>307.2432053941648</v>
       </c>
       <c r="B216" t="n">
-        <v>-7.663701312409363</v>
+        <v>5.534497620218285</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>236.6015710411354</v>
+        <v>309.993371862533</v>
       </c>
       <c r="B217" t="n">
-        <v>-7.585522257019626</v>
+        <v>5.456292143303797</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>239.2146282699322</v>
+        <v>312.7353552484889</v>
       </c>
       <c r="B218" t="n">
-        <v>-7.507689246375911</v>
+        <v>5.378447612375402</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>241.8209442027032</v>
+        <v>315.4691598588997</v>
       </c>
       <c r="B219" t="n">
-        <v>-7.430198670338775</v>
+        <v>5.300965033474776</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>244.4205261601406</v>
+        <v>318.1948247902794</v>
       </c>
       <c r="B220" t="n">
-        <v>-7.353048759017108</v>
+        <v>5.223837760458363</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>247.0133846036775</v>
+        <v>320.9123631825206</v>
       </c>
       <c r="B221" t="n">
-        <v>-7.276237640530869</v>
+        <v>5.147064258829122</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>249.5995340475916</v>
+        <v>323.6217896786177</v>
       </c>
       <c r="B222" t="n">
-        <v>-7.199762203894232</v>
+        <v>5.070643795785644</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>252.1789856658358</v>
+        <v>326.3231347291228</v>
       </c>
       <c r="B223" t="n">
-        <v>-7.123619959060011</v>
+        <v>4.994571057143706</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>254.751750435084</v>
+        <v>329.0164142764788</v>
       </c>
       <c r="B224" t="n">
-        <v>-7.047808893612888</v>
+        <v>4.918844776592747</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>257.31783787316</v>
+        <v>331.7016566490859</v>
       </c>
       <c r="B225" t="n">
-        <v>-6.972327204527408</v>
+        <v>4.843460876143848</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>259.8772678452064</v>
+        <v>334.3788701931097</v>
       </c>
       <c r="B226" t="n">
-        <v>-6.897170905329127</v>
+        <v>4.768419779099274</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>262.4300365025316</v>
+        <v>337.048085807733</v>
       </c>
       <c r="B227" t="n">
-        <v>-6.822341052088728</v>
+        <v>4.693716474233917</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>264.9761773755811</v>
+        <v>339.7093286979891</v>
       </c>
       <c r="B228" t="n">
-        <v>-6.747830910866142</v>
+        <v>4.619347580599682</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>267.5156851681735</v>
+        <v>342.3626103062962</v>
       </c>
       <c r="B229" t="n">
-        <v>-6.673641997517343</v>
+        <v>4.545312808984742</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>270.0485850437698</v>
+        <v>345.0079578790942</v>
       </c>
       <c r="B230" t="n">
-        <v>-6.599769435540736</v>
+        <v>4.471608612756259</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>272.5748670883901</v>
+        <v>347.6453917515807</v>
       </c>
       <c r="B231" t="n">
-        <v>-6.526215793990886</v>
+        <v>4.398232531478069</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>275.0945782388926</v>
+        <v>350.2749360084015</v>
       </c>
       <c r="B232" t="n">
-        <v>-6.452971631119859</v>
+        <v>4.325181688469475</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>277.6076988376453</v>
+        <v>352.8966062999502</v>
       </c>
       <c r="B233" t="n">
-        <v>-6.380041569429806</v>
+        <v>4.252455459046616</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>280.1142641989478</v>
+        <v>355.5104239414503</v>
       </c>
       <c r="B234" t="n">
-        <v>-6.307418830318177</v>
+        <v>4.180050885911568</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>282.6142782016396</v>
+        <v>358.1164279476485</v>
       </c>
       <c r="B235" t="n">
-        <v>-6.235103276243896</v>
+        <v>4.107961679272626</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>285.1077595589808</v>
+        <v>360.7146168552644</v>
       </c>
       <c r="B236" t="n">
-        <v>-6.163091372448869</v>
+        <v>4.036191576264268</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>287.5947108878601</v>
+        <v>363.3050267142326</v>
       </c>
       <c r="B237" t="n">
-        <v>-6.091383642400628</v>
+        <v>3.964734207127121</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>290.0751543747328</v>
+        <v>365.8876793019874</v>
       </c>
       <c r="B238" t="n">
-        <v>-6.019975997553295</v>
+        <v>3.893587634727974</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>292.5490958514175</v>
+        <v>368.4625952101597</v>
       </c>
       <c r="B239" t="n">
-        <v>-5.948867790554527</v>
+        <v>3.82274959993398</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>295.0165545002923</v>
+        <v>371.029796372547</v>
       </c>
       <c r="B240" t="n">
-        <v>-5.878055990253846</v>
+        <v>3.75221820889477</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>297.4775445115875</v>
+        <v>373.5892997881552</v>
       </c>
       <c r="B241" t="n">
-        <v>-5.807538386799162</v>
+        <v>3.681992453183745</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>299.932077016485</v>
+        <v>376.141128153533</v>
       </c>
       <c r="B242" t="n">
-        <v>-5.737313598027692</v>
+        <v>3.612069912448456</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>302.3801727325356</v>
+        <v>378.6853121071446</v>
       </c>
       <c r="B243" t="n">
-        <v>-5.667378047101518</v>
+        <v>3.542445945468363</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>304.8218332542154</v>
+        <v>381.2218741891131</v>
       </c>
       <c r="B244" t="n">
-        <v>-5.597732411387855</v>
+        <v>3.473118170254386</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>307.2570781340167</v>
+        <v>383.7508263434768</v>
       </c>
       <c r="B245" t="n">
-        <v>-5.528373756857741</v>
+        <v>3.404087838420949</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>309.6859246660832</v>
+        <v>386.2722019273673</v>
       </c>
       <c r="B246" t="n">
-        <v>-5.459298978605679</v>
+        <v>3.335348995904714</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>312.1083875991541</v>
+        <v>388.786014254195</v>
       </c>
       <c r="B247" t="n">
-        <v>-5.390506190577377</v>
+        <v>3.266902533311514</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>314.5244662899128</v>
+        <v>391.2922887676271</v>
       </c>
       <c r="B248" t="n">
-        <v>-5.321997155874254</v>
+        <v>3.198744783185592</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>316.9341984090269</v>
+        <v>393.7910497748045</v>
       </c>
       <c r="B249" t="n">
-        <v>-5.253764187824941</v>
+        <v>3.130873785758184</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>319.3375801824552</v>
+        <v>396.2823191886231</v>
       </c>
       <c r="B250" t="n">
-        <v>-5.185809700246039</v>
+        <v>3.063287114491921</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>321.7346358838066</v>
+        <v>398.7661174931826</v>
       </c>
       <c r="B251" t="n">
-        <v>-5.118129660173357</v>
+        <v>2.995983326848269</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>324.1253770227125</v>
+        <v>401.2424674424743</v>
       </c>
       <c r="B252" t="n">
-        <v>-5.050722693159682</v>
+        <v>2.928960194907344</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>326.5098112229128</v>
+        <v>403.7113928559229</v>
       </c>
       <c r="B253" t="n">
-        <v>-4.983588840130265</v>
+        <v>2.86221510628995</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>328.8879653047019</v>
+        <v>406.1729183885931</v>
       </c>
       <c r="B254" t="n">
-        <v>-4.916723125788494</v>
+        <v>2.795745620738411</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>331.2598451814972</v>
+        <v>408.627060527535</v>
       </c>
       <c r="B255" t="n">
-        <v>-4.85012583995548</v>
+        <v>2.729551415114597</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>333.6254602214378</v>
+        <v>411.073851340493</v>
       </c>
       <c r="B256" t="n">
-        <v>-4.783796675154824</v>
+        <v>2.663627265626531</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>335.9848418260975</v>
+        <v>413.5132970356192</v>
       </c>
       <c r="B257" t="n">
-        <v>-4.717729687166059</v>
+        <v>2.597976352802784</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>338.3379915273155</v>
+        <v>415.9454397096012</v>
       </c>
       <c r="B258" t="n">
-        <v>-4.651926238836811</v>
+        <v>2.532590569324589</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>340.6849350458421</v>
+        <v>418.3702807806389</v>
       </c>
       <c r="B259" t="n">
-        <v>-4.586382022666853</v>
+        <v>2.467474590165646</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>343.0256714169606</v>
+        <v>420.7878630492873</v>
       </c>
       <c r="B260" t="n">
-        <v>-4.521099240869232</v>
+        <v>2.40261937562964</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>345.360228655472</v>
+        <v>423.1981970938429</v>
       </c>
       <c r="B261" t="n">
-        <v>-4.45607263254403</v>
+        <v>2.338027672511545</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>347.6886269365155</v>
+        <v>425.6013046455193</v>
       </c>
       <c r="B262" t="n">
-        <v>-4.39129953654779</v>
+        <v>2.27369726486364</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>350.010855211745</v>
+        <v>427.9972102895219</v>
       </c>
       <c r="B263" t="n">
-        <v>-4.326784658490793</v>
+        <v>2.209625295662947</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>352.3269550363208</v>
+        <v>430.3859365907038</v>
       </c>
       <c r="B264" t="n">
-        <v>-4.262519705185134</v>
+        <v>2.145809727425607</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>354.6369325494151</v>
+        <v>432.7675119293931</v>
       </c>
       <c r="B265" t="n">
-        <v>-4.198504957677138</v>
+        <v>2.082247213455378</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>356.9407952005436</v>
+        <v>435.1419463157945</v>
       </c>
       <c r="B266" t="n">
-        <v>-4.134741069739561</v>
+        <v>2.018939338639758</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>359.2385681077162</v>
+        <v>437.5092718048937</v>
       </c>
       <c r="B267" t="n">
-        <v>-4.071223667969008</v>
+        <v>1.95588116928733</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>361.5302653017673</v>
+        <v>439.8695080936817</v>
       </c>
       <c r="B268" t="n">
-        <v>-4.007951426497753</v>
+        <v>1.893071929435671</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>363.8159021405576</v>
+        <v>442.2226700995851</v>
       </c>
       <c r="B269" t="n">
-        <v>-3.944922632542378</v>
+        <v>1.830511786158669</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>366.0954914725225</v>
+        <v>444.5687932972505</v>
       </c>
       <c r="B270" t="n">
-        <v>-3.882136389916149</v>
+        <v>1.768194764550371</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>368.3690436771642</v>
+        <v>446.9078898983489</v>
       </c>
       <c r="B271" t="n">
-        <v>-3.819591876936973</v>
+        <v>1.706122269544432</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>370.6365818632794</v>
+        <v>449.2399831444822</v>
       </c>
       <c r="B272" t="n">
-        <v>-3.75728650080862</v>
+        <v>1.644291965072446</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>372.8981170338952</v>
+        <v>451.5650933368206</v>
       </c>
       <c r="B273" t="n">
-        <v>-3.69521889532276</v>
+        <v>1.582702197172603</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>375.1536721448855</v>
+        <v>453.8832503893938</v>
       </c>
       <c r="B274" t="n">
-        <v>-3.633385747331316</v>
+        <v>1.521349448550311</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>377.4032490816111</v>
+        <v>456.1944679942483</v>
       </c>
       <c r="B275" t="n">
-        <v>-3.571789102545524</v>
+        <v>1.460233834485089</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>379.6468757135526</v>
+        <v>458.4987707833889</v>
       </c>
       <c r="B276" t="n">
-        <v>-3.510424064431868</v>
+        <v>1.399353743395064</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>381.8845584280612</v>
+        <v>460.7961820413031</v>
       </c>
       <c r="B277" t="n">
-        <v>-3.449291668941705</v>
+        <v>1.338705948008954</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>384.1163132634015</v>
+        <v>463.086726524877</v>
       </c>
       <c r="B278" t="n">
-        <v>-3.38838975720024</v>
+        <v>1.278287906159704</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>386.3421670211279</v>
+        <v>465.3704118488914</v>
       </c>
       <c r="B279" t="n">
-        <v>-3.327714592194698</v>
+        <v>1.218103037994552</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>388.562127428448</v>
+        <v>467.647277864657</v>
       </c>
       <c r="B280" t="n">
-        <v>-3.267265553024408</v>
+        <v>1.158143141680522</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>390.7762061689967</v>
+        <v>469.9173315447688</v>
       </c>
       <c r="B281" t="n">
-        <v>-3.207042852017591</v>
+        <v>1.098412069563186</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>392.9844185535478</v>
+        <v>472.1806026396026</v>
       </c>
       <c r="B282" t="n">
-        <v>-3.147045505312033</v>
+        <v>1.038904480245046</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>395.1867903790031</v>
+        <v>474.4371066555792</v>
       </c>
       <c r="B283" t="n">
-        <v>-3.087268360208228</v>
+        <v>0.979621273460144</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>397.3833242491023</v>
+        <v>476.6868783012716</v>
       </c>
       <c r="B284" t="n">
-        <v>-3.027713589842947</v>
+        <v>0.9205557523947208</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>399.5740397237847</v>
+        <v>478.9299195505494</v>
       </c>
       <c r="B285" t="n">
-        <v>-2.968379196701278</v>
+        <v>0.8617141410366883</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>401.7589631355382</v>
+        <v>481.166265575348</v>
       </c>
       <c r="B286" t="n">
-        <v>-2.909260216128083</v>
+        <v>0.8030884096127326</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>403.938093200545</v>
+        <v>483.3959299461427</v>
       </c>
       <c r="B287" t="n">
-        <v>-2.85035990780234</v>
+        <v>0.7446807239548773</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>406.1114557832545</v>
+        <v>485.6189369380061</v>
       </c>
       <c r="B288" t="n">
-        <v>-2.79167444583854</v>
+        <v>0.686488633243614</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>408.2790573768015</v>
+        <v>487.8353117401123</v>
       </c>
       <c r="B289" t="n">
-        <v>-2.733204303826263</v>
+        <v>0.6285079346822577</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>410.4409268621952</v>
+        <v>490.0450629066136</v>
       </c>
       <c r="B290" t="n">
-        <v>-2.674944463137385</v>
+        <v>0.5707422120686182</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>412.5970735484506</v>
+        <v>492.2482284985197</v>
       </c>
       <c r="B291" t="n">
-        <v>-2.616895325592728</v>
+        <v>0.513183825808703</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>414.7475038949397</v>
+        <v>494.444816906073</v>
       </c>
       <c r="B292" t="n">
-        <v>-2.559057960689707</v>
+        <v>0.4558354411350899</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>416.8922455949494</v>
+        <v>496.6348508449922</v>
       </c>
       <c r="B293" t="n">
-        <v>-2.501427771996416</v>
+        <v>0.3986954621862426</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>419.0313111463882</v>
+        <v>498.8183542499028</v>
       </c>
       <c r="B294" t="n">
-        <v>-2.444003986822757</v>
+        <v>0.3417601325100729</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>421.1647091051802</v>
+        <v>500.9953495153849</v>
       </c>
       <c r="B295" t="n">
-        <v>-2.386787456626144</v>
+        <v>0.2850278637996556</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>423.2924639524929</v>
+        <v>503.1658463228112</v>
       </c>
       <c r="B296" t="n">
-        <v>-2.329773705549537</v>
+        <v>0.228501912854897</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>425.4145862424116</v>
+        <v>505.3298769102328</v>
       </c>
       <c r="B297" t="n">
-        <v>-2.272963350279858</v>
+        <v>0.172175632723111</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>427.5310876117836</v>
+        <v>507.4874569697317</v>
       </c>
       <c r="B298" t="n">
-        <v>-2.216356065268939</v>
+        <v>0.1160487355862802</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>429.6419922613654</v>
+        <v>509.6386068036339</v>
       </c>
       <c r="B299" t="n">
-        <v>-2.159947396121042</v>
+        <v>0.06012130288922229</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>431.7473137867497</v>
+        <v>511.7833504128452</v>
       </c>
       <c r="B300" t="n">
-        <v>-2.103737326003796</v>
+        <v>0.004388794153555454</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>433.8470579551286</v>
+        <v>513.9216992824732</v>
       </c>
       <c r="B301" t="n">
-        <v>-2.047726879357032</v>
+        <v>-0.05114535405613099</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>435.9412545277418</v>
+        <v>516.0536791936506</v>
       </c>
       <c r="B302" t="n">
-        <v>-1.991910298592539</v>
+        <v>-0.1064859595999642</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>438.029900130601</v>
+        <v>518.1793157431237</v>
       </c>
       <c r="B303" t="n">
-        <v>-1.93629266526149</v>
+        <v>-0.1616364977858228</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>440.1130280127317</v>
+        <v>520.2986142271308</v>
       </c>
       <c r="B304" t="n">
-        <v>-1.880866616999294</v>
+        <v>-0.2165904390785836</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>442.1906516431125</v>
+        <v>522.4116095407667</v>
       </c>
       <c r="B305" t="n">
-        <v>-1.825631626908722</v>
+        <v>-0.2713589421267805</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>444.2627759361079</v>
+        <v>524.5183130671223</v>
       </c>
       <c r="B306" t="n">
-        <v>-1.770589178389155</v>
+        <v>-0.3259363472470379</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>446.3294148758092</v>
+        <v>526.6187430080281</v>
       </c>
       <c r="B307" t="n">
-        <v>-1.715739315287988</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>448.3905972726382</v>
-      </c>
-      <c r="B308" t="n">
-        <v>-1.661075758076982</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>450.4463320677484</v>
-      </c>
-      <c r="B309" t="n">
-        <v>-1.606599489808443</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>452.4966292175175</v>
-      </c>
-      <c r="B310" t="n">
-        <v>-1.552311102487664</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>454.5415048860616</v>
-      </c>
-      <c r="B311" t="n">
-        <v>-1.49820890972248</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>456.5809831741348</v>
-      </c>
-      <c r="B312" t="n">
-        <v>-1.444288669857271</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>458.6150683785156</v>
-      </c>
-      <c r="B313" t="n">
-        <v>-1.390552345008979</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>460.6437805229072</v>
-      </c>
-      <c r="B314" t="n">
-        <v>-1.336997730122237</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>462.6671347638036</v>
-      </c>
-      <c r="B315" t="n">
-        <v>-1.283623566782951</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>464.6851434559218</v>
-      </c>
-      <c r="B316" t="n">
-        <v>-1.230429280656213</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>466.6978274305096</v>
-      </c>
-      <c r="B317" t="n">
-        <v>-1.177411327734596</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>468.7051937557873</v>
-      </c>
-      <c r="B318" t="n">
-        <v>-1.124571987181219</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>470.7072646086471</v>
-      </c>
-      <c r="B319" t="n">
-        <v>-1.071906913219862</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>472.7040444820921</v>
-      </c>
-      <c r="B320" t="n">
-        <v>-1.019419083899074</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>474.6955587812768</v>
-      </c>
-      <c r="B321" t="n">
-        <v>-0.9671030754274815</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>476.6818155078609</v>
-      </c>
-      <c r="B322" t="n">
-        <v>-0.9149607935248255</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>478.662830988029</v>
-      </c>
-      <c r="B323" t="n">
-        <v>-0.8629902191506944</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>480.6386240829613</v>
-      </c>
-      <c r="B324" t="n">
-        <v>-0.8111886511738229</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>482.6092049215792</v>
-      </c>
-      <c r="B325" t="n">
-        <v>-0.7595567980967225</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>484.5745883270043</v>
-      </c>
-      <c r="B326" t="n">
-        <v>-0.7080934700673345</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>486.5347883047288</v>
-      </c>
-      <c r="B327" t="n">
-        <v>-0.656796949393873</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>488.4898241526716</v>
-      </c>
-      <c r="B328" t="n">
-        <v>-0.6056650847901547</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>490.4397028392164</v>
-      </c>
-      <c r="B329" t="n">
-        <v>-0.5546997119229069</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>492.3844448910833</v>
-      </c>
-      <c r="B330" t="n">
-        <v>-0.5038978723009263</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>494.3240625892352</v>
-      </c>
-      <c r="B331" t="n">
-        <v>-0.453257744527922</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>496.2585664441622</v>
-      </c>
-      <c r="B332" t="n">
-        <v>-0.4027810287400874</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>498.1879778531416</v>
-      </c>
-      <c r="B333" t="n">
-        <v>-0.3524639567947666</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>500.1123030458781</v>
-      </c>
-      <c r="B334" t="n">
-        <v>-0.3023078743234895</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>502.0315641169626</v>
-      </c>
-      <c r="B335" t="n">
-        <v>-0.2523095478962273</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>503.9457724061581</v>
-      </c>
-      <c r="B336" t="n">
-        <v>-0.2024675937375281</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>505.8549376321583</v>
-      </c>
-      <c r="B337" t="n">
-        <v>-0.152784561265703</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>507.7590801773821</v>
-      </c>
-      <c r="B338" t="n">
-        <v>-0.1032557543092484</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>509.6582112236222</v>
-      </c>
-      <c r="B339" t="n">
-        <v>-0.05388115502662653</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>511.5523430783143</v>
-      </c>
-      <c r="B340" t="n">
-        <v>-0.00466128197292821</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>513.4414908863874</v>
-      </c>
-      <c r="B341" t="n">
-        <v>0.04440580142840084</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>515.3256716313854</v>
-      </c>
-      <c r="B342" t="n">
-        <v>0.09332232476210782</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>517.2048907625442</v>
-      </c>
-      <c r="B343" t="n">
-        <v>0.1420860482744616</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>519.0791745213467</v>
-      </c>
-      <c r="B344" t="n">
-        <v>0.1907033682662378</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>520.9485266480824</v>
-      </c>
-      <c r="B345" t="n">
-        <v>0.2391703896060588</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>522.8129604045726</v>
-      </c>
-      <c r="B346" t="n">
-        <v>0.287487382248325</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>524.6724955597374</v>
-      </c>
-      <c r="B347" t="n">
-        <v>0.3356598524951618</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>526.5271401237918</v>
-      </c>
-      <c r="B348" t="n">
-        <v>0.3836844737798359</v>
+        <v>-0.38032573310875</v>
       </c>
     </row>
   </sheetData>

--- a/Reverse_anglesIn_20.xlsx
+++ b/Reverse_anglesIn_20.xlsx
@@ -440,2450 +440,2450 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>-521.7865581161763</v>
+        <v>-524.6848406032884</v>
       </c>
       <c r="B2" t="n">
-        <v>45.96504754188017</v>
+        <v>46.22580053947776</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>-513.2596853534096</v>
+        <v>-515.9646736146883</v>
       </c>
       <c r="B3" t="n">
-        <v>45.19855387334068</v>
+        <v>45.44153527137912</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>-505.2514905121213</v>
+        <v>-507.7996267453157</v>
       </c>
       <c r="B4" t="n">
-        <v>44.48085304879136</v>
+        <v>44.70889745282178</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>-497.6695312355089</v>
+        <v>-500.0879230091737</v>
       </c>
       <c r="B5" t="n">
-        <v>43.80464420687323</v>
+        <v>44.01990986610301</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>-490.4437097763884</v>
+        <v>-492.7531409610161</v>
       </c>
       <c r="B6" t="n">
-        <v>43.16426028727061</v>
+        <v>43.36844171991039</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>-483.519487236723</v>
+        <v>-485.7362451054083</v>
       </c>
       <c r="B7" t="n">
-        <v>42.55518784739798</v>
+        <v>42.74964373148084</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>-476.8536330385321</v>
+        <v>-478.9907389574483</v>
       </c>
       <c r="B8" t="n">
-        <v>41.9737687623672</v>
+        <v>42.1596105288226</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>-470.4115693067754</v>
+        <v>-472.4794210503998</v>
       </c>
       <c r="B9" t="n">
-        <v>41.41702169866264</v>
+        <v>41.59515104056585</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>-464.1647309857984</v>
+        <v>-466.1720491914526</v>
       </c>
       <c r="B10" t="n">
-        <v>40.88242231978976</v>
+        <v>41.05361711226575</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>-458.0896893005369</v>
+        <v>-460.0435718154237</v>
       </c>
       <c r="B11" t="n">
-        <v>40.36786354020782</v>
+        <v>40.53276550769547</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>-452.1666990479677</v>
+        <v>-454.0731896163281</v>
       </c>
       <c r="B12" t="n">
-        <v>39.87152930916817</v>
+        <v>40.03069826369068</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>-446.3791815785328</v>
+        <v>-448.2433637481246</v>
       </c>
       <c r="B13" t="n">
-        <v>39.39186693209211</v>
+        <v>39.54578227293003</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>-440.7130133102055</v>
+        <v>-442.5392588414858</v>
       </c>
       <c r="B14" t="n">
-        <v>38.92752777681168</v>
+        <v>39.07661059676359</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>-435.1560597553238</v>
+        <v>-436.9480659048255</v>
       </c>
       <c r="B15" t="n">
-        <v>38.4773303744088</v>
+        <v>38.62194181533926</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>-429.6977951466923</v>
+        <v>-431.4588424402295</v>
       </c>
       <c r="B16" t="n">
-        <v>38.0402290263345</v>
+        <v>38.18069788275986</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>-424.3291576058624</v>
+        <v>-426.0620454534553</v>
       </c>
       <c r="B17" t="n">
-        <v>37.61530868861003</v>
+        <v>37.75191925994598</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>-419.0421419781773</v>
+        <v>-420.7493463982704</v>
       </c>
       <c r="B18" t="n">
-        <v>37.20174369392611</v>
+        <v>37.3347529077929</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>-413.8297501321646</v>
+        <v>-415.5134424821586</v>
       </c>
       <c r="B19" t="n">
-        <v>36.79879958067723</v>
+        <v>36.9284366586993</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>-408.6858258346837</v>
+        <v>-410.347959322685</v>
       </c>
       <c r="B20" t="n">
-        <v>36.40581876708838</v>
+        <v>36.53229450775768</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>-403.60491935454</v>
+        <v>-405.247150157449</v>
       </c>
       <c r="B21" t="n">
-        <v>36.02220832228553</v>
+        <v>36.1457031682469</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>-398.582125646505</v>
+        <v>-400.2059910401856</v>
       </c>
       <c r="B22" t="n">
-        <v>35.64742361135384</v>
+        <v>35.76810947446295</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>-393.6130985129179</v>
+        <v>-395.2199576804889</v>
       </c>
       <c r="B23" t="n">
-        <v>35.28097383509692</v>
+        <v>35.39900523545954</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>-388.6939265450874</v>
+        <v>-390.285025675467</v>
       </c>
       <c r="B24" t="n">
-        <v>34.92240872422656</v>
+        <v>35.03793038324089</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>-383.8211509934159</v>
+        <v>-385.3975705925149</v>
       </c>
       <c r="B25" t="n">
-        <v>34.57132360917435</v>
+        <v>34.68446274129742</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>-378.991615374804</v>
+        <v>-380.5543031534129</v>
       </c>
       <c r="B26" t="n">
-        <v>34.22734174326063</v>
+        <v>34.33821168850176</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>-374.2024541243961</v>
+        <v>-375.7523428145723</v>
       </c>
       <c r="B27" t="n">
-        <v>33.89011451554661</v>
+        <v>33.99882977279042</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>-369.4510857619557</v>
+        <v>-370.9889600318903</v>
       </c>
       <c r="B28" t="n">
-        <v>33.55932213357492</v>
+        <v>33.66598034274001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>-364.7351672711807</v>
+        <v>-366.26177501185</v>
       </c>
       <c r="B29" t="n">
-        <v>33.2346688512241</v>
+        <v>33.33936507828993</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>-360.0525787518747</v>
+        <v>-361.5686031793185</v>
       </c>
       <c r="B30" t="n">
-        <v>32.91588201373105</v>
+        <v>33.01870482514689</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>-355.4013687548629</v>
+        <v>-356.907418297388</v>
       </c>
       <c r="B31" t="n">
-        <v>32.60270584700876</v>
+        <v>32.70373549520214</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>-350.7797713934168</v>
+        <v>-352.2763928679761</v>
       </c>
       <c r="B32" t="n">
-        <v>32.2949041928151</v>
+        <v>32.39421429505953</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>-346.1861812349439</v>
+        <v>-347.6738710360149</v>
       </c>
       <c r="B33" t="n">
-        <v>31.99225842648611</v>
+        <v>32.08991702594441</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>-341.6190985089272</v>
+        <v>-343.0983599216687</v>
       </c>
       <c r="B34" t="n">
-        <v>31.69456009099585</v>
+        <v>31.79063750154524</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>-337.0771389273808</v>
+        <v>-338.5483883947571</v>
       </c>
       <c r="B35" t="n">
-        <v>31.40161306343839</v>
+        <v>31.49616881590422</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>-332.5590965328072</v>
+        <v>-334.0227164884165</v>
       </c>
       <c r="B36" t="n">
-        <v>31.11324253238971</v>
+        <v>31.20633242722032</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>-328.0637985111757</v>
+        <v>-329.5201518349322</v>
       </c>
       <c r="B37" t="n">
-        <v>30.8292756158208</v>
+        <v>30.92095361675759</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>-323.59018603644</v>
+        <v>-325.0396068669676</v>
       </c>
       <c r="B38" t="n">
-        <v>30.54955272746413</v>
+        <v>30.63986957015362</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>-319.1372833581339</v>
+        <v>-320.5800895763891</v>
       </c>
       <c r="B39" t="n">
-        <v>30.27392367673787</v>
+        <v>30.36292846226913</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>-314.7041904130595</v>
+        <v>-316.140675717474</v>
       </c>
       <c r="B40" t="n">
-        <v>30.00224693107758</v>
+        <v>30.08998598583338</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>-310.2900846755779</v>
+        <v>-311.720480801887</v>
       </c>
       <c r="B41" t="n">
-        <v>29.73439004189834</v>
+        <v>29.82090165472866</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>-305.8941897670454</v>
+        <v>-307.3187586358364</v>
       </c>
       <c r="B42" t="n">
-        <v>29.47022576451672</v>
+        <v>29.55555273262034</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>-301.5157851993927</v>
+        <v>-302.9347508719334</v>
       </c>
       <c r="B43" t="n">
-        <v>29.20963330643388</v>
+        <v>29.29381360161815</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>-297.1542238180378</v>
+        <v>-298.5678134199566</v>
       </c>
       <c r="B44" t="n">
-        <v>28.95250105078012</v>
+        <v>29.03557339578094</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>-292.8088975443238</v>
+        <v>-294.2172727741227</v>
       </c>
       <c r="B45" t="n">
-        <v>28.69872197240596</v>
+        <v>28.78071620454056</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>-288.4792522604041</v>
+        <v>-289.882600426628</v>
       </c>
       <c r="B46" t="n">
-        <v>28.44819579803249</v>
+        <v>28.52914556188624</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>-284.1647376320111</v>
+        <v>-285.563223521507</v>
       </c>
       <c r="B47" t="n">
-        <v>28.2008221592334</v>
+        <v>28.28075817978124</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>-279.8648883302142</v>
+        <v>-281.2586647492142</v>
       </c>
       <c r="B48" t="n">
-        <v>27.95651197456144</v>
+        <v>28.03546346463979</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>-275.5792467753352</v>
+        <v>-276.9684545785973</v>
       </c>
       <c r="B49" t="n">
-        <v>27.71517685234915</v>
+        <v>27.7931714397908</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>-271.307377868439</v>
+        <v>-272.6921764929449</v>
       </c>
       <c r="B50" t="n">
-        <v>27.47673107322593</v>
+        <v>27.55379922161654</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>-267.0489327715972</v>
+        <v>-268.4294070691939</v>
       </c>
       <c r="B51" t="n">
-        <v>27.24110083855653</v>
+        <v>27.31726252901455</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>-262.8035082448545</v>
+        <v>-264.1797981454574</v>
       </c>
       <c r="B52" t="n">
-        <v>27.00820438008896</v>
+        <v>27.08348746150366</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>-258.5707986539107</v>
+        <v>-259.9429901766587</v>
       </c>
       <c r="B53" t="n">
-        <v>26.7779734635939</v>
+        <v>26.85239816869587</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>-254.3504605575581</v>
+        <v>-255.7186778356033</v>
       </c>
       <c r="B54" t="n">
-        <v>26.55033436686903</v>
+        <v>26.62392648421677</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>-250.1422440212216</v>
+        <v>-251.5065683515536</v>
       </c>
       <c r="B55" t="n">
-        <v>26.32522657695352</v>
+        <v>26.39800582240585</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>-245.9458491700985</v>
+        <v>-247.3063459086155</v>
       </c>
       <c r="B56" t="n">
-        <v>26.10258235278883</v>
+        <v>26.17456610923666</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>-241.7610387894444</v>
+        <v>-243.1178198940597</v>
       </c>
       <c r="B57" t="n">
-        <v>25.88234279360463</v>
+        <v>25.95355518734777</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>-237.5875773446703</v>
+        <v>-238.9406882415981</v>
       </c>
       <c r="B58" t="n">
-        <v>25.66444930953262</v>
+        <v>25.73490489779929</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>-233.4252626015173</v>
+        <v>-234.7747784071559</v>
       </c>
       <c r="B59" t="n">
-        <v>25.44884806492461</v>
+        <v>25.51856570627616</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>-229.2738656995529</v>
+        <v>-230.6198557983494</v>
       </c>
       <c r="B60" t="n">
-        <v>25.2354813851345</v>
+        <v>25.3044790637461</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>-225.1332235346473</v>
+        <v>-226.4757444810467</v>
       </c>
       <c r="B61" t="n">
-        <v>25.02430118595914</v>
+        <v>25.09259503365212</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>-221.0031531228296</v>
+        <v>-222.3422651769863</v>
       </c>
       <c r="B62" t="n">
-        <v>24.81525658594908</v>
+        <v>24.8828632262353</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>-216.8835002765274</v>
+        <v>-218.2192435254496</v>
       </c>
       <c r="B63" t="n">
-        <v>24.60830088698236</v>
+        <v>24.67523402320974</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>-212.7741075294816</v>
+        <v>-214.1065422537395</v>
       </c>
       <c r="B64" t="n">
-        <v>24.40338714734357</v>
+        <v>24.46966332105757</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>-208.6748521685518</v>
+        <v>-210.0040111898739</v>
       </c>
       <c r="B65" t="n">
-        <v>24.20047351134242</v>
+        <v>24.26610528316664</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>-204.5855901556943</v>
+        <v>-205.9115268525897</v>
       </c>
       <c r="B66" t="n">
-        <v>23.99951519163601</v>
+        <v>24.06451805763446</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>-200.5062115803705</v>
+        <v>-201.8289521180498</v>
       </c>
       <c r="B67" t="n">
-        <v>23.80047255660312</v>
+        <v>23.86485796255038</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>-196.4366230382012</v>
+        <v>-197.7561911475937</v>
       </c>
       <c r="B68" t="n">
-        <v>23.60330851000598</v>
+        <v>23.66708751922592</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>-192.3766932557823</v>
+        <v>-193.6931409466791</v>
       </c>
       <c r="B69" t="n">
-        <v>23.40798064059582</v>
+        <v>23.47116837883465</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>-188.3263458245067</v>
+        <v>-189.6396912769809</v>
       </c>
       <c r="B70" t="n">
-        <v>23.2144547020621</v>
+        <v>23.27706126053288</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>-184.2854964281499</v>
+        <v>-185.5957710917432</v>
       </c>
       <c r="B71" t="n">
-        <v>23.02269552307423</v>
+        <v>23.08473292165215</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>-180.2540602743238</v>
+        <v>-181.5612854191857</v>
       </c>
       <c r="B72" t="n">
-        <v>22.83266803829719</v>
+        <v>22.89414667188161</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>-176.2319745801206</v>
+        <v>-177.5361697042007</v>
       </c>
       <c r="B73" t="n">
-        <v>22.64434064565134</v>
+        <v>22.70527068901293</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>-172.2191678106266</v>
+        <v>-173.5203575916503</v>
       </c>
       <c r="B74" t="n">
-        <v>22.45768073355444</v>
+        <v>22.51807289206784</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>-168.2155742902441</v>
+        <v>-169.5137816937359</v>
       </c>
       <c r="B75" t="n">
-        <v>22.27265658449043</v>
+        <v>22.33252142875152</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>-164.2211343614961</v>
+        <v>-165.516380311209</v>
       </c>
       <c r="B76" t="n">
-        <v>22.0892378150022</v>
+        <v>22.14858539449762</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>-160.2358228721107</v>
+        <v>-161.5281046626531</v>
       </c>
       <c r="B77" t="n">
-        <v>21.9073992755824</v>
+        <v>21.96623608843402</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>-156.2595681404271</v>
+        <v>-157.548925475683</v>
       </c>
       <c r="B78" t="n">
-        <v>21.72710911265944</v>
+        <v>21.78544796228892</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>-152.2923325787009</v>
+        <v>-153.5787671520297</v>
       </c>
       <c r="B79" t="n">
-        <v>21.54834090429368</v>
+        <v>21.60618870518646</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>-148.3340831733899</v>
+        <v>-149.6176024958961</v>
       </c>
       <c r="B80" t="n">
-        <v>21.3710689369446</v>
+        <v>21.4284335558087</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>-144.3847905912356</v>
+        <v>-145.6654153273767</v>
       </c>
       <c r="B81" t="n">
-        <v>21.19526850999895</v>
+        <v>21.25215964332293</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>-140.4444152620005</v>
+        <v>-141.7221433944487</v>
       </c>
       <c r="B82" t="n">
-        <v>21.02091350921721</v>
+        <v>21.07733734118376</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>-136.5129286429888</v>
+        <v>-137.7877712063415</v>
       </c>
       <c r="B83" t="n">
-        <v>20.84797970127581</v>
+        <v>20.90394433963604</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>-132.590319404459</v>
+        <v>-133.8622862991371</v>
       </c>
       <c r="B84" t="n">
-        <v>20.67644577606129</v>
+        <v>20.73195907906618</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>-128.6765515926647</v>
+        <v>-129.945651759376</v>
       </c>
       <c r="B85" t="n">
-        <v>20.50628686436834</v>
+        <v>20.56135643345333</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>-124.7716131520739</v>
+        <v>-126.0378543835051</v>
       </c>
       <c r="B86" t="n">
-        <v>20.33748201773722</v>
+        <v>20.39211523754528</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>-120.8754809337464</v>
+        <v>-122.1388634752741</v>
       </c>
       <c r="B87" t="n">
-        <v>20.17000884567443</v>
+        <v>20.22421181881238</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>-116.9881623689562</v>
+        <v>-118.2486855654338</v>
       </c>
       <c r="B88" t="n">
-        <v>20.00384980146272</v>
+        <v>20.05762844239171</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>-113.1096326868819</v>
+        <v>-114.3673018298022</v>
       </c>
       <c r="B89" t="n">
-        <v>19.83898272608217</v>
+        <v>19.89234379521434</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>-109.2398562660606</v>
+        <v>-110.4946890605427</v>
       </c>
       <c r="B90" t="n">
-        <v>19.67538402288856</v>
+        <v>19.72833614667607</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>-105.3788742642046</v>
+        <v>-106.6308545391812</v>
       </c>
       <c r="B91" t="n">
-        <v>19.51304210998292</v>
+        <v>19.56558854310032</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>-101.5266484285992</v>
+        <v>-102.7757795871963</v>
       </c>
       <c r="B92" t="n">
-        <v>19.35193349892916</v>
+        <v>19.40408043717874</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>-97.68317063212868</v>
+        <v>-98.92946811783185</v>
       </c>
       <c r="B93" t="n">
-        <v>19.1920394548556</v>
+        <v>19.24379494809402</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>-93.84845311386508</v>
+        <v>-95.09191250435188</v>
       </c>
       <c r="B94" t="n">
-        <v>19.03334480016303</v>
+        <v>19.08471366531805</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>-90.02249724960579</v>
+        <v>-91.26311303290161</v>
       </c>
       <c r="B95" t="n">
-        <v>18.87583282745923</v>
+        <v>18.92681969999659</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>-86.20528696300387</v>
+        <v>-87.44305348942206</v>
       </c>
       <c r="B96" t="n">
-        <v>18.71948430790597</v>
+        <v>18.77009368244314</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>-82.39682553733758</v>
+        <v>-83.6317632174801</v>
       </c>
       <c r="B97" t="n">
-        <v>18.56428345496996</v>
+        <v>18.61452376295099</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>-78.59712643397535</v>
+        <v>-79.82922160682148</v>
       </c>
       <c r="B98" t="n">
-        <v>18.41021607954286</v>
+        <v>18.46009046691988</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>-74.80618365244169</v>
+        <v>-76.03542900647605</v>
       </c>
       <c r="B99" t="n">
-        <v>18.25726533229392</v>
+        <v>18.30677782997672</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>-71.02399212902263</v>
+        <v>-72.2503936844717</v>
       </c>
       <c r="B100" t="n">
-        <v>18.10541477905159</v>
+        <v>18.15457134907068</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>-67.25057481634373</v>
+        <v>-68.47413776147656</v>
       </c>
       <c r="B101" t="n">
-        <v>17.95465250573763</v>
+        <v>18.00345894370876</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>-63.48592966546635</v>
+        <v>-64.70663902777423</v>
       </c>
       <c r="B102" t="n">
-        <v>17.80496296124671</v>
+        <v>17.8534218765353</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>-59.73004876851147</v>
+        <v>-60.94792212157933</v>
       </c>
       <c r="B103" t="n">
-        <v>17.65632995613705</v>
+        <v>17.70444890726962</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>-55.98295742147389</v>
+        <v>-57.19797368096574</v>
       </c>
       <c r="B104" t="n">
-        <v>17.50874271512904</v>
+        <v>17.55652312825925</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>-52.24465698057159</v>
+        <v>-53.45681905115109</v>
       </c>
       <c r="B105" t="n">
-        <v>17.36218688985271</v>
+        <v>17.40963397469887</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>-48.51515468355156</v>
+        <v>-49.72446066638511</v>
       </c>
       <c r="B106" t="n">
-        <v>17.21664939155953</v>
+        <v>17.26376738707863</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>-44.79444713873886</v>
+        <v>-46.00089281971123</v>
       </c>
       <c r="B107" t="n">
-        <v>17.07211559404826</v>
+        <v>17.11890845560157</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>-41.08254950518663</v>
+        <v>-42.28614545956447</v>
       </c>
       <c r="B108" t="n">
-        <v>16.92857410809903</v>
+        <v>16.97504787101684</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>-37.37947851451929</v>
+        <v>-38.58020772985937</v>
       </c>
       <c r="B109" t="n">
-        <v>16.78601395584853</v>
+        <v>16.83217038679487</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>-33.68523164695711</v>
+        <v>-34.88309153922185</v>
       </c>
       <c r="B110" t="n">
-        <v>16.64442141759227</v>
+        <v>16.69026434238813</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>-29.99982154829378</v>
+        <v>-31.1948134370396</v>
       </c>
       <c r="B111" t="n">
-        <v>16.50378525580456</v>
+        <v>16.549319197874</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>-26.32325202260466</v>
+        <v>-27.5153724242682</v>
       </c>
       <c r="B112" t="n">
-        <v>16.36409327182164</v>
+        <v>16.40932180900916</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>-22.65554236584893</v>
+        <v>-23.84478646452269</v>
       </c>
       <c r="B113" t="n">
-        <v>16.22533577401066</v>
+        <v>16.27026227997994</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>-18.99669831886315</v>
+        <v>-20.18305675252725</v>
       </c>
       <c r="B114" t="n">
-        <v>16.0875012445287</v>
+        <v>16.13212817649129</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>-15.34672728348341</v>
+        <v>-16.53020763770443</v>
       </c>
       <c r="B115" t="n">
-        <v>15.95057856527473</v>
+        <v>15.99491111117139</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>-11.70562454130144</v>
+        <v>-12.88623346639056</v>
       </c>
       <c r="B116" t="n">
-        <v>15.81455490980139</v>
+        <v>15.85859809289934</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>-8.07342617775663</v>
+        <v>-9.251142253005654</v>
       </c>
       <c r="B117" t="n">
-        <v>15.6794243635673</v>
+        <v>15.7231784636625</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>-4.450118209396394</v>
+        <v>-5.62494165145494</v>
       </c>
       <c r="B118" t="n">
-        <v>15.54517289242257</v>
+        <v>15.58864176677271</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>-0.8357189895657343</v>
+        <v>-2.007658200431655</v>
       </c>
       <c r="B119" t="n">
-        <v>15.41179216177112</v>
+        <v>15.45498077696016</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>2.769762716658371</v>
+        <v>1.600719486924332</v>
       </c>
       <c r="B120" t="n">
-        <v>15.27927235530298</v>
+        <v>15.32218248217305</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>6.366312504331359</v>
+        <v>5.200163915953521</v>
       </c>
       <c r="B121" t="n">
-        <v>15.1476048181983</v>
+        <v>15.19024020475221</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>9.953939781061861</v>
+        <v>8.790684585497367</v>
       </c>
       <c r="B122" t="n">
-        <v>15.0167772398909</v>
+        <v>15.05914155699871</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>13.53261754578894</v>
+        <v>12.37227219708072</v>
       </c>
       <c r="B123" t="n">
-        <v>14.88678340667405</v>
+        <v>14.92887736236657</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>17.1023426462251</v>
+        <v>15.94490129807039</v>
       </c>
       <c r="B124" t="n">
-        <v>14.75761343999597</v>
+        <v>14.79944139975775</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>20.66311867981199</v>
+        <v>19.5085855029026</v>
       </c>
       <c r="B125" t="n">
-        <v>14.62925661535955</v>
+        <v>14.67082112792848</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>24.21491340550435</v>
+        <v>23.0632993802564</v>
       </c>
       <c r="B126" t="n">
-        <v>14.50170825613402</v>
+        <v>14.54301074299426</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>27.75774625205991</v>
+        <v>26.60903884191871</v>
       </c>
       <c r="B127" t="n">
-        <v>14.37495533391648</v>
+        <v>14.4160010121637</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>31.29159635475273</v>
+        <v>30.14580572619147</v>
       </c>
       <c r="B128" t="n">
-        <v>14.2489916869391</v>
+        <v>14.28978193110534</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>34.81646031554298</v>
+        <v>33.6735869712673</v>
       </c>
       <c r="B129" t="n">
-        <v>14.12380847222028</v>
+        <v>14.16434631000567</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>38.33233471830792</v>
+        <v>37.19237752242326</v>
       </c>
       <c r="B130" t="n">
-        <v>13.99939704069716</v>
+        <v>14.03968560670291</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>41.83920590335902</v>
+        <v>40.70216970763654</v>
       </c>
       <c r="B131" t="n">
-        <v>13.87575071560305</v>
+        <v>13.91579210300755</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>45.33705779284956</v>
+        <v>44.20295337927817</v>
       </c>
       <c r="B132" t="n">
-        <v>13.75286326545849</v>
+        <v>13.79265852812159</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>48.82591623754001</v>
+        <v>47.69472532014261</v>
       </c>
       <c r="B133" t="n">
-        <v>13.63072176499109</v>
+        <v>13.67027671985395</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>52.30574905703181</v>
+        <v>51.17748833602304</v>
       </c>
       <c r="B134" t="n">
-        <v>13.50932310456526</v>
+        <v>13.54863771010358</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>55.77656017120994</v>
+        <v>54.6512283387986</v>
       </c>
       <c r="B135" t="n">
-        <v>13.3886584403495</v>
+        <v>13.42773555071015</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>59.23834981365539</v>
+        <v>58.11595147691192</v>
       </c>
       <c r="B136" t="n">
-        <v>13.26871948868769</v>
+        <v>13.30756092325841</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>62.69111109053358</v>
+        <v>61.57163987856161</v>
       </c>
       <c r="B137" t="n">
-        <v>13.14949960230526</v>
+        <v>13.18810899261772</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>66.13482957131897</v>
+        <v>65.01829094519738</v>
       </c>
       <c r="B138" t="n">
-        <v>13.03099346267967</v>
+        <v>13.069372424715</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>69.56951265716113</v>
+        <v>68.45590615274918</v>
       </c>
       <c r="B139" t="n">
-        <v>12.91319219204504</v>
+        <v>12.95134326867099</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>72.99515895103825</v>
+        <v>71.88448797037999</v>
       </c>
       <c r="B140" t="n">
-        <v>12.79608871783768</v>
+        <v>12.83401363285956</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>76.41175457463098</v>
+        <v>75.30401852118027</v>
       </c>
       <c r="B141" t="n">
-        <v>12.67967817286642</v>
+        <v>12.71737937513458</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>79.81931310771786</v>
+        <v>78.71451620682369</v>
       </c>
       <c r="B142" t="n">
-        <v>12.56395115413246</v>
+        <v>12.60143017199847</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>83.21782683681785</v>
+        <v>82.11595777299013</v>
       </c>
       <c r="B143" t="n">
-        <v>12.44890210555798</v>
+        <v>12.48616314038304</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>86.60728356303333</v>
+        <v>85.50835122537569</v>
       </c>
       <c r="B144" t="n">
-        <v>12.33452647105457</v>
+        <v>12.37157009398063</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>89.98769042586201</v>
+        <v>88.89169983702276</v>
       </c>
       <c r="B145" t="n">
-        <v>12.22081636170741</v>
+        <v>12.25764385844049</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>93.35904833891881</v>
+        <v>92.26599179018463</v>
       </c>
       <c r="B146" t="n">
-        <v>12.10776541566249</v>
+        <v>12.14438010018945</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>96.72136359683891</v>
+        <v>95.63124129691666</v>
       </c>
       <c r="B147" t="n">
-        <v>11.99536613083531</v>
+        <v>12.03177006450445</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>100.0746202566375</v>
+        <v>98.98743595477355</v>
       </c>
       <c r="B148" t="n">
-        <v>11.88361533052332</v>
+        <v>11.91980978711588</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>103.41882828308</v>
+        <v>102.3345845073775</v>
       </c>
       <c r="B149" t="n">
-        <v>11.77250541565448</v>
+        <v>11.8084917513241</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>106.7539851865174</v>
+        <v>105.6726773105837</v>
       </c>
       <c r="B150" t="n">
-        <v>11.66203098752391</v>
+        <v>11.69781199719174</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>110.0800955114746</v>
+        <v>109.0017270217923</v>
       </c>
       <c r="B151" t="n">
-        <v>11.55218567257027</v>
+        <v>11.58776251430161</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>113.3971651383373</v>
+        <v>112.3217222792663</v>
       </c>
       <c r="B152" t="n">
-        <v>11.44296308996737</v>
+        <v>11.47833982046471</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>116.7051876666182</v>
+        <v>115.6326862672831</v>
       </c>
       <c r="B153" t="n">
-        <v>11.33435904855467</v>
+        <v>11.36953467718281</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>120.0041683531092</v>
+        <v>118.9346001952696</v>
       </c>
       <c r="B154" t="n">
-        <v>11.2263675138295</v>
+        <v>11.26134504980594</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>123.2941114858851</v>
+        <v>122.2274763184551</v>
       </c>
       <c r="B155" t="n">
-        <v>11.11898268944935</v>
+        <v>11.15376387491455</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>126.575022716603</v>
+        <v>125.5113134258582</v>
       </c>
       <c r="B156" t="n">
-        <v>11.0121987612494</v>
+        <v>11.04678640574744</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>129.8469091258095</v>
+        <v>128.7861218074355</v>
       </c>
       <c r="B157" t="n">
-        <v>10.90600988751937</v>
+        <v>10.94040605112046</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>133.1097543806404</v>
+        <v>132.0519098946951</v>
       </c>
       <c r="B158" t="n">
-        <v>10.8004143671561</v>
+        <v>10.83461690763087</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>136.3635849830571</v>
+        <v>135.3086603363266</v>
       </c>
       <c r="B159" t="n">
-        <v>10.69540304566665</v>
+        <v>10.72941747464644</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>139.6083975343417</v>
+        <v>138.5564053171721</v>
       </c>
       <c r="B160" t="n">
-        <v>10.59097233600721</v>
+        <v>10.62479769006461</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>142.8442032680289</v>
+        <v>141.7951273097484</v>
       </c>
       <c r="B161" t="n">
-        <v>10.48711608150069</v>
+        <v>10.52075669368683</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>146.0710036977924</v>
+        <v>145.024850758607</v>
       </c>
       <c r="B162" t="n">
-        <v>10.38383004139406</v>
+        <v>10.41728586774862</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>149.288804921723</v>
+        <v>148.2455742418616</v>
       </c>
       <c r="B163" t="n">
-        <v>10.28110922785416</v>
+        <v>10.31438173882115</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>152.4976089934281</v>
+        <v>151.4572929456224</v>
       </c>
       <c r="B164" t="n">
-        <v>10.17894958463996</v>
+        <v>10.21204133632846</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>155.6974348580706</v>
+        <v>154.660039797384</v>
       </c>
       <c r="B165" t="n">
-        <v>10.07734420592916</v>
+        <v>10.11025507381407</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>158.8882782569133</v>
+        <v>157.8537934558886</v>
       </c>
       <c r="B166" t="n">
-        <v>9.976290330304678</v>
+        <v>10.00902350927126</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>162.0701517575397</v>
+        <v>161.0385694421302</v>
       </c>
       <c r="B167" t="n">
-        <v>9.875782347943485</v>
+        <v>9.908340308576514</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>165.2430597819362</v>
+        <v>164.2143956146004</v>
       </c>
       <c r="B168" t="n">
-        <v>9.775816400355152</v>
+        <v>9.808197127606068</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>168.4070181804084</v>
+        <v>167.3812558425361</v>
       </c>
       <c r="B169" t="n">
-        <v>9.676386356648608</v>
+        <v>9.708593937545961</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>171.5620277490829</v>
+        <v>170.5391688318712</v>
       </c>
       <c r="B170" t="n">
-        <v>9.57748935108982</v>
+        <v>9.609524367642726</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>174.7081088190414</v>
+        <v>173.6881520546956</v>
       </c>
       <c r="B171" t="n">
-        <v>9.479118587075641</v>
+        <v>9.510982276939366</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>177.8452532287777</v>
+        <v>176.8281931678275</v>
       </c>
       <c r="B172" t="n">
-        <v>9.381273161823374</v>
+        <v>9.412967189756319</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>180.9734979694812</v>
+        <v>179.9593182984849</v>
       </c>
       <c r="B173" t="n">
-        <v>9.283943494454961</v>
+        <v>9.315471839169692</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>184.092829915927</v>
+        <v>183.0815400862314</v>
       </c>
       <c r="B174" t="n">
-        <v>9.187129441753246</v>
+        <v>9.21849129790767</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>187.2032581956259</v>
+        <v>186.1948619120507</v>
       </c>
       <c r="B175" t="n">
-        <v>9.090827369563701</v>
+        <v>9.122022526126743</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>190.3048094032442</v>
+        <v>189.2992942453663</v>
       </c>
       <c r="B176" t="n">
-        <v>8.995029886373366</v>
+        <v>9.026061419482897</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>193.3974914076961</v>
+        <v>192.3948464134913</v>
       </c>
       <c r="B177" t="n">
-        <v>8.899733296369543</v>
+        <v>8.930604098907329</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>196.4812980287645</v>
+        <v>195.4815412000702</v>
       </c>
       <c r="B178" t="n">
-        <v>8.804937113133688</v>
+        <v>8.835644124912136</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>199.5562631157374</v>
+        <v>198.5593672632154</v>
       </c>
       <c r="B179" t="n">
-        <v>8.71063301706786</v>
+        <v>8.741182037991823</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>202.6223937606995</v>
+        <v>201.6283624372415</v>
       </c>
       <c r="B180" t="n">
-        <v>8.616817679742384</v>
+        <v>8.647208742275286</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>205.6796977640337</v>
+        <v>204.6885314979364</v>
       </c>
       <c r="B181" t="n">
-        <v>8.523488178370348</v>
+        <v>8.553721616097217</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>208.7281909552389</v>
+        <v>207.7398862961255</v>
       </c>
       <c r="B182" t="n">
-        <v>8.430640005847248</v>
+        <v>8.460716954636114</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>211.7678863782653</v>
+        <v>210.7824321858321</v>
       </c>
       <c r="B183" t="n">
-        <v>8.338269049281353</v>
+        <v>8.368192263667114</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>214.7987941134046</v>
+        <v>213.8161891656409</v>
       </c>
       <c r="B184" t="n">
-        <v>8.246372400797293</v>
+        <v>8.276142321676137</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>217.8209314065897</v>
+        <v>216.8411682957974</v>
       </c>
       <c r="B185" t="n">
-        <v>8.154945252593702</v>
+        <v>8.184563774707479</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>220.83430734909</v>
+        <v>219.8573898730153</v>
       </c>
       <c r="B186" t="n">
-        <v>8.063984979559184</v>
+        <v>8.093451523656706</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>223.8389462470792</v>
+        <v>222.8648578919746</v>
       </c>
       <c r="B187" t="n">
-        <v>7.973485739974332</v>
+        <v>8.002803968170833</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>226.8348545857262</v>
+        <v>225.8635967802769</v>
       </c>
       <c r="B188" t="n">
-        <v>7.883445362689751</v>
+        <v>7.912615305965606</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>229.8220425207397</v>
+        <v>228.8536131939083</v>
       </c>
       <c r="B189" t="n">
-        <v>7.793861153515654</v>
+        <v>7.822883404424643</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>232.8005381662487</v>
+        <v>231.8349315062981</v>
       </c>
       <c r="B190" t="n">
-        <v>7.704726862208394</v>
+        <v>7.733602811700493</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>235.7703432261726</v>
+        <v>234.8075621750494</v>
       </c>
       <c r="B191" t="n">
-        <v>7.616041706620406</v>
+        <v>7.644770922298368</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>238.7314948866284</v>
+        <v>237.7715110000024</v>
       </c>
       <c r="B192" t="n">
-        <v>7.527797736168039</v>
+        <v>7.556385944197555</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>241.6839815928314</v>
+        <v>240.7268131968927</v>
       </c>
       <c r="B193" t="n">
-        <v>7.439996840581024</v>
+        <v>7.468440601396924</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>244.6278389665973</v>
+        <v>243.6734679366458</v>
       </c>
       <c r="B194" t="n">
-        <v>7.352631582308431</v>
+        <v>7.380934607027412</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>247.5630730307649</v>
+        <v>246.6115002290918</v>
       </c>
       <c r="B195" t="n">
-        <v>7.265700798920473</v>
+        <v>7.293862993568227</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>250.4897093482355</v>
+        <v>249.5409168283719</v>
       </c>
       <c r="B196" t="n">
-        <v>7.179199132340207</v>
+        <v>7.207223954180285</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>253.4077597974695</v>
+        <v>252.461751657666</v>
       </c>
       <c r="B197" t="n">
-        <v>7.093124074655495</v>
+        <v>7.121010810918309</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>256.3172363504748</v>
+        <v>255.3740149362164</v>
       </c>
       <c r="B198" t="n">
-        <v>7.007473390622236</v>
+        <v>7.035221492792659</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>259.2181597575459</v>
+        <v>258.2777119618212</v>
       </c>
       <c r="B199" t="n">
-        <v>6.922243084176499</v>
+        <v>6.949855194810441</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>262.1105577147027</v>
+        <v>261.1728772604185</v>
       </c>
       <c r="B200" t="n">
-        <v>6.83742758341456</v>
+        <v>6.864904929399685</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>264.9944291445306</v>
+        <v>264.0595097363001</v>
       </c>
       <c r="B201" t="n">
-        <v>6.75302780916384</v>
+        <v>6.780371385697663</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>267.8698138396004</v>
+        <v>266.93764069678</v>
       </c>
       <c r="B202" t="n">
-        <v>6.669035662071324</v>
+        <v>6.696248476183678</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>270.7367028399291</v>
+        <v>269.8072896591385</v>
       </c>
       <c r="B203" t="n">
-        <v>6.58545374259935</v>
+        <v>6.612532770243852</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>273.595141038627</v>
+        <v>272.6684712913866</v>
       </c>
       <c r="B204" t="n">
-        <v>6.502273254591467</v>
+        <v>6.529221663740169</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>276.4451316152224</v>
+        <v>275.5211987835791</v>
       </c>
       <c r="B205" t="n">
-        <v>6.419494267061184</v>
+        <v>6.446313214982259</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>279.286706178981</v>
+        <v>278.365503733368</v>
       </c>
       <c r="B206" t="n">
-        <v>6.33711087076442</v>
+        <v>6.363801501299233</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>282.1198666995151</v>
+        <v>281.2013880574761</v>
       </c>
       <c r="B207" t="n">
-        <v>6.255123623369476</v>
+        <v>6.28168706652548</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>284.9446368355547</v>
+        <v>284.0288737748957</v>
       </c>
       <c r="B208" t="n">
-        <v>6.173528504082974</v>
+        <v>6.199966280231627</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>287.7610353865841</v>
+        <v>286.8479942501682</v>
       </c>
       <c r="B209" t="n">
-        <v>6.092322532843633</v>
+        <v>6.118632725667264</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>290.5690926732387</v>
+        <v>289.6587601884847</v>
       </c>
       <c r="B210" t="n">
-        <v>6.01150035606659</v>
+        <v>6.037685464465861</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>293.3688211381767</v>
+        <v>292.4611888250906</v>
       </c>
       <c r="B211" t="n">
-        <v>5.931060475335489</v>
+        <v>5.957121778679335</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>296.160238322634</v>
+        <v>295.2552995547309</v>
       </c>
       <c r="B212" t="n">
-        <v>5.851000426172082</v>
+        <v>5.876939196346088</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>298.9433634841329</v>
+        <v>298.0411081763211</v>
       </c>
       <c r="B213" t="n">
-        <v>5.771317377963638</v>
+        <v>5.79713527463706</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>301.7182208360513</v>
+        <v>300.8186485926518</v>
       </c>
       <c r="B214" t="n">
-        <v>5.692007528111207</v>
+        <v>5.717704186318787</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>304.4848282802054</v>
+        <v>303.5879337639854</v>
       </c>
       <c r="B215" t="n">
-        <v>5.613068517735835</v>
+        <v>5.63864456760284</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>307.2432053941648</v>
+        <v>306.3489720533358</v>
       </c>
       <c r="B216" t="n">
-        <v>5.534497620218285</v>
+        <v>5.55995610280752</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>309.993371862533</v>
+        <v>309.1018102453005</v>
       </c>
       <c r="B217" t="n">
-        <v>5.456292143303797</v>
+        <v>5.481630235721354</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>312.7353552484889</v>
+        <v>311.8464394701333</v>
       </c>
       <c r="B218" t="n">
-        <v>5.378447612375402</v>
+        <v>5.403670553906923</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>315.4691598588997</v>
+        <v>314.5828970138788</v>
       </c>
       <c r="B219" t="n">
-        <v>5.300965033474776</v>
+        <v>5.326070584565635</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>318.1948247902794</v>
+        <v>317.3112060398988</v>
       </c>
       <c r="B220" t="n">
-        <v>5.223837760458363</v>
+        <v>5.248827110016149</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>320.9123631825206</v>
+        <v>320.0313770540918</v>
       </c>
       <c r="B221" t="n">
-        <v>5.147064258829122</v>
+        <v>5.171939582207057</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>323.6217896786177</v>
+        <v>322.743434946361</v>
       </c>
       <c r="B222" t="n">
-        <v>5.070643795785644</v>
+        <v>5.095404445771109</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>326.3231347291228</v>
+        <v>325.4474031930071</v>
       </c>
       <c r="B223" t="n">
-        <v>4.994571057143706</v>
+        <v>5.019218574101369</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>329.0164142764788</v>
+        <v>328.143294153544</v>
       </c>
       <c r="B224" t="n">
-        <v>4.918844776592747</v>
+        <v>4.94338111585473</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>331.7016566490859</v>
+        <v>330.8311437035834</v>
       </c>
       <c r="B225" t="n">
-        <v>4.843460876143848</v>
+        <v>4.867886165570956</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>334.3788701931097</v>
+        <v>333.5109614918339</v>
       </c>
       <c r="B226" t="n">
-        <v>4.768419779099274</v>
+        <v>4.792733735389866</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>337.048085807733</v>
+        <v>336.182771336586</v>
       </c>
       <c r="B227" t="n">
-        <v>4.693716474233917</v>
+        <v>4.717920812679207</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>339.7093286979891</v>
+        <v>338.8465980419114</v>
       </c>
       <c r="B228" t="n">
-        <v>4.619347580599682</v>
+        <v>4.643443824700744</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>342.3626103062962</v>
+        <v>341.5024581191381</v>
       </c>
       <c r="B229" t="n">
-        <v>4.545312808984742</v>
+        <v>4.569301635003878</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>345.0079578790942</v>
+        <v>344.1503810467697</v>
       </c>
       <c r="B230" t="n">
-        <v>4.471608612756259</v>
+        <v>4.495489702502253</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>347.6453917515807</v>
+        <v>346.7903757399993</v>
       </c>
       <c r="B231" t="n">
-        <v>4.398232531478069</v>
+        <v>4.42200858904662</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>350.2749360084015</v>
+        <v>349.4224794969106</v>
       </c>
       <c r="B232" t="n">
-        <v>4.325181688469475</v>
+        <v>4.348852157928312</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>352.8966062999502</v>
+        <v>352.0467014506623</v>
       </c>
       <c r="B233" t="n">
-        <v>4.252455459046616</v>
+        <v>4.276021023868357</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>355.5104239414503</v>
+        <v>354.6630671966468</v>
       </c>
       <c r="B234" t="n">
-        <v>4.180050885911568</v>
+        <v>4.20351194965181</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>358.1164279476485</v>
+        <v>357.2715998585591</v>
       </c>
       <c r="B235" t="n">
-        <v>4.107961679272626</v>
+        <v>4.131321770009905</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>360.7146168552644</v>
+        <v>359.8723242700781</v>
       </c>
       <c r="B236" t="n">
-        <v>4.036191576264268</v>
+        <v>4.059447870036582</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>363.3050267142326</v>
+        <v>362.4652552335028</v>
       </c>
       <c r="B237" t="n">
-        <v>3.964734207127121</v>
+        <v>3.987889366349954</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>365.8876793019874</v>
+        <v>365.0504273032303</v>
       </c>
       <c r="B238" t="n">
-        <v>3.893587634727974</v>
+        <v>3.916641050139553</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>368.4625952101597</v>
+        <v>367.6278515474068</v>
       </c>
       <c r="B239" t="n">
-        <v>3.82274959993398</v>
+        <v>3.845703289390326</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>371.029796372547</v>
+        <v>370.1975474150292</v>
       </c>
       <c r="B240" t="n">
-        <v>3.75221820889477</v>
+        <v>3.775074245556743</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>373.5892997881552</v>
+        <v>372.7595506670119</v>
       </c>
       <c r="B241" t="n">
-        <v>3.681992453183745</v>
+        <v>3.704748366557238</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>376.141128153533</v>
+        <v>375.3138714090825</v>
       </c>
       <c r="B242" t="n">
-        <v>3.612069912448456</v>
+        <v>3.634726495064774</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>378.6853121071446</v>
+        <v>377.8605292129074</v>
       </c>
       <c r="B243" t="n">
-        <v>3.542445945468363</v>
+        <v>3.565006861373054</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>381.2218741891131</v>
+        <v>380.3995660038515</v>
       </c>
       <c r="B244" t="n">
-        <v>3.473118170254386</v>
+        <v>3.495582692821489</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>383.7508263434768</v>
+        <v>382.9309863530174</v>
       </c>
       <c r="B245" t="n">
-        <v>3.404087838420949</v>
+        <v>3.426455606629636</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>386.2722019273673</v>
+        <v>385.4548113889134</v>
       </c>
       <c r="B246" t="n">
-        <v>3.335348995904714</v>
+        <v>3.357624228225798</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>388.786014254195</v>
+        <v>387.9710759154685</v>
       </c>
       <c r="B247" t="n">
-        <v>3.266902533311514</v>
+        <v>3.289082944510953</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>391.2922887676271</v>
+        <v>390.4797948481545</v>
       </c>
       <c r="B248" t="n">
-        <v>3.198744783185592</v>
+        <v>3.22083169177878</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>393.7910497748045</v>
+        <v>392.9809920705517</v>
       </c>
       <c r="B249" t="n">
-        <v>3.130873785758184</v>
+        <v>3.152867779427126</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>396.2823191886231</v>
+        <v>395.4746902893743</v>
       </c>
       <c r="B250" t="n">
-        <v>3.063287114491921</v>
+        <v>3.08518893704316</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>398.7661174931826</v>
+        <v>397.9609099853143</v>
       </c>
       <c r="B251" t="n">
-        <v>2.995983326848269</v>
+        <v>3.017793716171064</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>401.2424674424743</v>
+        <v>400.4396791658372</v>
       </c>
       <c r="B252" t="n">
-        <v>2.928960194907344</v>
+        <v>2.950678433049792</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>403.7113928559229</v>
+        <v>402.9110059153899</v>
       </c>
       <c r="B253" t="n">
-        <v>2.86221510628995</v>
+        <v>2.883844819918536</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>406.1729183885931</v>
+        <v>405.3749336779863</v>
       </c>
       <c r="B254" t="n">
-        <v>2.795745620738411</v>
+        <v>2.817285432541757</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>408.627060527535</v>
+        <v>407.8314707746831</v>
       </c>
       <c r="B255" t="n">
-        <v>2.729551415114597</v>
+        <v>2.751001481484796</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>411.073851340493</v>
+        <v>410.2806438730939</v>
       </c>
       <c r="B256" t="n">
-        <v>2.663627265626531</v>
+        <v>2.684990307882756</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>413.5132970356192</v>
+        <v>412.7224726799097</v>
       </c>
       <c r="B257" t="n">
-        <v>2.597976352802784</v>
+        <v>2.619250412047625</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>415.9454397096012</v>
+        <v>415.1569799171248</v>
       </c>
       <c r="B258" t="n">
-        <v>2.532590569324589</v>
+        <v>2.55377966178219</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>418.3702807806389</v>
+        <v>417.5841872724973</v>
       </c>
       <c r="B259" t="n">
-        <v>2.467474590165646</v>
+        <v>2.488576343160229</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>420.7878630492873</v>
+        <v>420.0041194381623</v>
       </c>
       <c r="B260" t="n">
-        <v>2.40261937562964</v>
+        <v>2.423638102717879</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>423.1981970938429</v>
+        <v>422.4168069701705</v>
       </c>
       <c r="B261" t="n">
-        <v>2.338027672511545</v>
+        <v>2.358959629528448</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>425.6013046455193</v>
+        <v>424.8222556615588</v>
       </c>
       <c r="B262" t="n">
-        <v>2.27369726486364</v>
+        <v>2.2945451450787</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>427.9972102895219</v>
+        <v>427.2204979755689</v>
       </c>
       <c r="B263" t="n">
-        <v>2.209625295662947</v>
+        <v>2.230388565419663</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>430.3859365907038</v>
+        <v>429.6115536412503</v>
       </c>
       <c r="B264" t="n">
-        <v>2.145809727425607</v>
+        <v>2.166489606251984</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>432.7675119293931</v>
+        <v>431.9954432847704</v>
       </c>
       <c r="B265" t="n">
-        <v>2.082247213455378</v>
+        <v>2.102846495044721</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>435.1419463157945</v>
+        <v>434.3721960848964</v>
       </c>
       <c r="B266" t="n">
-        <v>2.018939338639758</v>
+        <v>2.039454942229021</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>437.5092718048937</v>
+        <v>436.7418242230959</v>
       </c>
       <c r="B267" t="n">
-        <v>1.95588116928733</v>
+        <v>1.976316834355222</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>439.8695080936817</v>
+        <v>439.1043566107637</v>
       </c>
       <c r="B268" t="n">
-        <v>1.893071929435671</v>
+        <v>1.913427360235604</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>442.2226700995851</v>
+        <v>441.4598149402482</v>
       </c>
       <c r="B269" t="n">
-        <v>1.830511786158669</v>
+        <v>1.850785493971942</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>444.5687932972505</v>
+        <v>443.8082152677569</v>
       </c>
       <c r="B270" t="n">
-        <v>1.768194764550371</v>
+        <v>1.788391553933195</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>446.9078898983489</v>
+        <v>446.149592423139</v>
       </c>
       <c r="B271" t="n">
-        <v>1.706122269544432</v>
+        <v>1.726238479560429</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>449.2399831444822</v>
+        <v>448.4839546288048</v>
       </c>
       <c r="B272" t="n">
-        <v>1.644291965072446</v>
+        <v>1.664330252774846</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>451.5650933368206</v>
+        <v>450.8113277299357</v>
       </c>
       <c r="B273" t="n">
-        <v>1.582702197172603</v>
+        <v>1.602663333956592</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>453.8832503893938</v>
+        <v>453.1317417735552</v>
       </c>
       <c r="B274" t="n">
-        <v>1.521349448550311</v>
+        <v>1.541232711657133</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>456.1944679942483</v>
+        <v>455.4452094987531</v>
       </c>
       <c r="B275" t="n">
-        <v>1.460233834485089</v>
+        <v>1.480040390010925</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>458.4987707833889</v>
+        <v>457.7517519640486</v>
       </c>
       <c r="B276" t="n">
-        <v>1.399353743395064</v>
+        <v>1.419084344784034</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>460.7961820413031</v>
+        <v>460.0514012802761</v>
       </c>
       <c r="B277" t="n">
-        <v>1.338705948008954</v>
+        <v>1.358359865052883</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>463.086726524877</v>
+        <v>462.3441699937219</v>
       </c>
       <c r="B278" t="n">
-        <v>1.278287906159704</v>
+        <v>1.297868454458851</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>465.3704118488914</v>
+        <v>464.6300754605433</v>
       </c>
       <c r="B279" t="n">
-        <v>1.218103037994552</v>
+        <v>1.237609207236005</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>467.647277864657</v>
+        <v>466.9091495291009</v>
       </c>
       <c r="B280" t="n">
-        <v>1.158143141680522</v>
+        <v>1.177577436877202</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>469.9173315447688</v>
+        <v>469.1814098588522</v>
       </c>
       <c r="B281" t="n">
-        <v>1.098412069563186</v>
+        <v>1.117772794813753</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>472.1806026396026</v>
+        <v>471.4468825010933</v>
       </c>
       <c r="B282" t="n">
-        <v>1.038904480245046</v>
+        <v>1.058191961847242</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>474.4371066555792</v>
+        <v>473.7055830395798</v>
       </c>
       <c r="B283" t="n">
-        <v>0.979621273460144</v>
+        <v>0.9988348882233161</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>476.6868783012716</v>
+        <v>475.9575352489018</v>
       </c>
       <c r="B284" t="n">
-        <v>0.9205557523947208</v>
+        <v>0.9396994930910022</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>478.9299195505494</v>
+        <v>478.2027534271959</v>
       </c>
       <c r="B285" t="n">
-        <v>0.8617141410366883</v>
+        <v>0.8807875106661356</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>481.166265575348</v>
+        <v>480.4412713947402</v>
       </c>
       <c r="B286" t="n">
-        <v>0.8030884096127326</v>
+        <v>0.822090777925597</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>483.3959299461427</v>
+        <v>482.6731020247252</v>
       </c>
       <c r="B287" t="n">
-        <v>0.7446807239548773</v>
+        <v>0.7636128033275622</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>485.6189369380061</v>
+        <v>484.8982701713713</v>
       </c>
       <c r="B288" t="n">
-        <v>0.686488633243614</v>
+        <v>0.7053497831942013</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>487.8353117401123</v>
+        <v>487.1167940027702</v>
       </c>
       <c r="B289" t="n">
-        <v>0.6285079346822577</v>
+        <v>0.6473010529976151</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>490.0450629066136</v>
+        <v>489.3286899063647</v>
       </c>
       <c r="B290" t="n">
-        <v>0.5707422120686182</v>
+        <v>0.5894671855307959</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>492.2482284985197</v>
+        <v>491.5339943127107</v>
       </c>
       <c r="B291" t="n">
-        <v>0.513183825808703</v>
+        <v>0.531839473760762</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>494.444816906073</v>
+        <v>493.732711651161</v>
       </c>
       <c r="B292" t="n">
-        <v>0.4558354411350899</v>
+        <v>0.4744243751252591</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>496.6348508449922</v>
+        <v>495.9248750762509</v>
       </c>
       <c r="B293" t="n">
-        <v>0.3986954621862426</v>
+        <v>0.4172152297461594</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>498.8183542499028</v>
+        <v>498.110494247635</v>
       </c>
       <c r="B294" t="n">
-        <v>0.3417601325100729</v>
+        <v>0.3602139130785115</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>500.9953495153849</v>
+        <v>500.289597956065</v>
       </c>
       <c r="B295" t="n">
-        <v>0.2850278637996556</v>
+        <v>0.3034166322561964</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>503.1658463228112</v>
+        <v>502.4622005199322</v>
       </c>
       <c r="B296" t="n">
-        <v>0.228501912854897</v>
+        <v>0.2468243058248241</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>505.3298769102328</v>
+        <v>504.6283315715518</v>
       </c>
       <c r="B297" t="n">
-        <v>0.172175632723111</v>
+        <v>0.1904309799808689</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>507.4874569697317</v>
+        <v>506.7879982887084</v>
       </c>
       <c r="B298" t="n">
-        <v>0.1160487355862802</v>
+        <v>0.1342419783426934</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>509.6386068036339</v>
+        <v>508.9412345096687</v>
       </c>
       <c r="B299" t="n">
-        <v>0.06012130288922229</v>
+        <v>0.07824901814387737</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>511.7833504128452</v>
+        <v>511.0880524808364</v>
       </c>
       <c r="B300" t="n">
-        <v>0.004388794153555454</v>
+        <v>0.02245469640828638</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>513.9216992824732</v>
+        <v>513.2284742744683</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.05114535405613099</v>
+        <v>-0.03314387956989026</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>516.0536791936506</v>
+        <v>515.3625219441484</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.1064859595999642</v>
+        <v>-0.08854825166581828</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>518.1793157431237</v>
+        <v>517.4902143470277</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.1616364977858228</v>
+        <v>-0.1437601883758824</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>520.2986142271308</v>
+        <v>519.6115669263963</v>
       </c>
       <c r="B304" t="n">
-        <v>-0.2165904390785836</v>
+        <v>-0.1987781596934119</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>522.4116095407667</v>
+        <v>521.72660690687</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.2713589421267805</v>
+        <v>-0.2536072731542126</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>524.5183130671223</v>
+        <v>523.8353477336738</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.3259363472470379</v>
+        <v>-0.3082456855321943</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>526.6187430080281</v>
+        <v>525.9378147494465</v>
       </c>
       <c r="B307" t="n">
-        <v>-0.38032573310875</v>
+        <v>-0.3626968527911585</v>
       </c>
     </row>
   </sheetData>
